--- a/1_DesignCode/ISP derivation method accuracy analysis.xlsx
+++ b/1_DesignCode/ISP derivation method accuracy analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\LADS-GIT-Repos\1_DesignCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0064CB62-BC30-44FA-9D61-511444D5FE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D8A850-22D3-4202-9990-7E59979A942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="RPA raw" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,13 +485,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8916,16 +8915,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>5043</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>107016</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173131</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>425823</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9466,50 +9465,50 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
@@ -12807,7 +12806,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12890,19 +12889,19 @@
       <c r="U1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -12973,7 +12972,7 @@
         <f>L2-B2</f>
         <v>34.1019367991845</v>
       </c>
-      <c r="V2" s="13"/>
+      <c r="V2" s="14"/>
       <c r="X2">
         <v>101325</v>
       </c>
@@ -13042,7 +13041,7 @@
         <f t="shared" ref="U3:U8" si="6">L3-B3</f>
         <v>158.26197757390418</v>
       </c>
-      <c r="V3" s="13"/>
+      <c r="V3" s="14"/>
       <c r="X3">
         <v>101325</v>
       </c>
@@ -13111,7 +13110,7 @@
         <f t="shared" si="6"/>
         <v>13.103975535168161</v>
       </c>
-      <c r="V4" s="13"/>
+      <c r="V4" s="14"/>
       <c r="X4">
         <v>101325</v>
       </c>
@@ -13180,7 +13179,7 @@
         <f t="shared" si="6"/>
         <v>12.093781855249745</v>
       </c>
-      <c r="V5" s="13"/>
+      <c r="V5" s="14"/>
       <c r="X5">
         <v>101325</v>
       </c>
@@ -13252,7 +13251,7 @@
         <f t="shared" si="6"/>
         <v>19.897737003058069</v>
       </c>
-      <c r="V6" s="13"/>
+      <c r="V6" s="14"/>
       <c r="X6">
         <v>101325</v>
       </c>
@@ -13324,7 +13323,7 @@
         <f t="shared" si="6"/>
         <v>43.293170234454635</v>
       </c>
-      <c r="V7" s="13"/>
+      <c r="V7" s="14"/>
       <c r="X7">
         <v>101325</v>
       </c>
@@ -13403,7 +13402,7 @@
         <f t="shared" si="6"/>
         <v>45.355555555555554</v>
       </c>
-      <c r="V8" s="13"/>
+      <c r="V8" s="14"/>
       <c r="X8">
         <v>101325</v>
       </c>
@@ -13468,10 +13467,10 @@
         <f t="shared" si="5"/>
         <v>22.048999999999978</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="W9" s="12"/>
+      <c r="W9" s="13"/>
       <c r="X9" t="s">
         <v>91</v>
       </c>
@@ -13601,10 +13600,10 @@
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="13"/>
       <c r="X12" t="s">
         <v>90</v>
       </c>
@@ -13677,12 +13676,12 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="7">
         <f>MEDIAN(P2:P9)</f>
         <v>0.11167318770628881</v>
@@ -13701,12 +13700,12 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="7">
         <f>AVERAGE(P15:S15)</f>
         <v>0.10533781967142833</v>
@@ -14767,8 +14766,8 @@
   <dimension ref="A1:N68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1_DesignCode/ISP derivation method accuracy analysis.xlsx
+++ b/1_DesignCode/ISP derivation method accuracy analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\LADS-GIT-Repos\1_DesignCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D8A850-22D3-4202-9990-7E59979A942B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7383065-2D34-4788-949F-FBAA63A47030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex Analysis" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="Accuracy Analysis" sheetId="5" r:id="rId4"/>
     <sheet name="Analysis 2 raw" sheetId="3" r:id="rId5"/>
     <sheet name="CEArun Nescius" sheetId="6" r:id="rId6"/>
-    <sheet name="RPA raw" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="RPA raw" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
   <si>
     <t>O/F</t>
   </si>
@@ -384,6 +385,33 @@
   </si>
   <si>
     <t>Max ther</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Ye80</t>
+  </si>
+  <si>
+    <t>Yn80</t>
+  </si>
+  <si>
+    <t>Ye80A1</t>
+  </si>
+  <si>
+    <t>Ye80A2</t>
+  </si>
+  <si>
+    <t>Ye80B</t>
+  </si>
+  <si>
+    <t>Yn80A1</t>
+  </si>
+  <si>
+    <t>Yn80A2</t>
+  </si>
+  <si>
+    <t>Yn80B</t>
   </si>
 </sst>
 </file>
@@ -5965,6 +5993,557 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ye80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6678848332536515E-2"/>
+                  <c:y val="-1.4053246059468083E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-977D-4C2C-AE75-3D9A39EFE614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yn80</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2548260512937297E-2"/>
+                  <c:y val="-5.8689197412413872E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-977D-4C2C-AE75-3D9A39EFE614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="66948960"/>
+        <c:axId val="66950400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66948960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66950400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66950400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66948960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6126,6 +6705,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8745,6 +9364,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8915,16 +10050,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>173131</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118222</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285190</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8946,6 +10081,1991 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>169376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>172484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0668A76-AC05-57AB-01D1-9CBFBEEE5551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3697381" y="169376"/>
+          <a:ext cx="8443072" cy="6099108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>308741</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04047FFF-AEBF-991E-EB65-0A9CF77F620B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4552293" y="3120259"/>
+          <a:ext cx="1865586" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>303486</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69F8DA89-B558-4BD0-A8BC-485CAAEE6FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6411310" y="3128142"/>
+          <a:ext cx="1314" cy="2330668"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264072</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296917</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE3FC74-F66B-47C1-B2D7-9E371736531C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4540469" y="3811314"/>
+          <a:ext cx="1865586" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>505810</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506452</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0224715-7C72-492E-BF9F-EEE3707B2E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6592517" y="2995448"/>
+          <a:ext cx="642" cy="2454711"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>144517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>507124</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E269A541-9B86-4FA8-8468-F2109168F4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4552293" y="3002017"/>
+          <a:ext cx="2063969" cy="7883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>282305</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513533</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91997</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB737FE-3B49-4E08-B168-99807C287009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4543000" y="3894114"/>
+          <a:ext cx="2057240" cy="7883"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>221263</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>223345</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>135866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC7A05F-211B-45EB-B40D-9D65908DDC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6941315" y="2883776"/>
+          <a:ext cx="2082" cy="2586090"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275896</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206266</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64066A74-9887-4A05-AC5E-48CD82A0933D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4552293" y="2886404"/>
+          <a:ext cx="2374025" cy="10510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283779</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>10511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>214149</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>21021</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88BC6B1C-1659-48FB-892B-33F14CD1A2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4560176" y="4011011"/>
+          <a:ext cx="2374025" cy="10510"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>478968</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>490904</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1D0DA1-F7BA-4832-90B2-FE2F367F8B07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7168449" y="2769577"/>
+          <a:ext cx="11936" cy="2685635"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496817</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47EA1A10-102F-4FC3-AF9D-20EDCE858D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4535365" y="2776500"/>
+          <a:ext cx="2650933" cy="7731"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>262304</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>480698</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108439</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7254D3-0D60-4202-8D4C-F5B1D6608529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4519246" y="4101208"/>
+          <a:ext cx="2650933" cy="7731"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>119948</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>154342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A2F07A-D98F-461A-8CD9-B09E60F9B84D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7424057" y="2710543"/>
+          <a:ext cx="11091" cy="2777799"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>116444</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDA23C7-6294-47A2-8B9E-A7E50CF62F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4550229" y="2716629"/>
+          <a:ext cx="2881415" cy="10242"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277586</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>169372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>111001</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D812B8F0-138A-44F8-A0DE-8BC466B7FA0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4544786" y="4169872"/>
+          <a:ext cx="2881415" cy="10242"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>310816</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>140368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>314389</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA519052-F31D-43E0-B8B6-55CB663ADAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7650079" y="2616868"/>
+          <a:ext cx="3573" cy="2832060"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280737</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>307946</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>155408</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1148E31-3E55-4607-AB24-89B6503CE0A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4561974" y="2621379"/>
+          <a:ext cx="3085235" cy="10529"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277729</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>26568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304938</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD516B88-D46D-4AEE-8E3D-CBD37855DC12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4558966" y="4217568"/>
+          <a:ext cx="3085235" cy="10529"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>479534</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480341</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E25EB7-6C0D-4777-B9FF-358BC14F01CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="2542190"/>
+          <a:ext cx="807" cy="2933013"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>269327</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>470441</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0459AF6A-179E-4EC5-9600-715C9C41EBB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4530022" y="2549121"/>
+          <a:ext cx="3244468" cy="19345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259474</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>460588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>74591</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{440FB184-E4BB-467D-A7AB-67FCAA30AA28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4526674" y="4246246"/>
+          <a:ext cx="3249114" cy="19345"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22788</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2EE58E-732E-45BD-85EE-5B02DA8D34EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7947588" y="2514600"/>
+          <a:ext cx="4426" cy="2960603"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>283029</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048DE7B8-B4AB-453A-9820-9DB5FAE17C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4550229" y="2511021"/>
+          <a:ext cx="3397009" cy="9022"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293914</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33323</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFA073E-285F-4152-AA92-7F75C0FDDAE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4561114" y="4301721"/>
+          <a:ext cx="3397009" cy="9022"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437492</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F6BD9-674A-478C-BCAA-465B330A0E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8951377" y="2227385"/>
+          <a:ext cx="2123" cy="3240491"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457658</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720D30F0-9A16-4007-9FE4-E7FD8FDCFCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4542692" y="2225271"/>
+          <a:ext cx="4428851" cy="2114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276958</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448866</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A51F2C6-B8B7-4754-AE27-CB13D0DE7F59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4533900" y="4458517"/>
+          <a:ext cx="4428851" cy="2114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428572</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>434578</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1392ECC6-39E0-41EA-B441-DE7A20C12862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9536853" y="2083594"/>
+          <a:ext cx="6006" cy="3375999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>464069</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D226E8B5-09A8-4B42-A0F5-A975E4D8FCF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4542692" y="2225271"/>
+          <a:ext cx="4422440" cy="2114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279797</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425970</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB1E142-8618-4DCE-8431-66A2A769031B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4530328" y="2091921"/>
+          <a:ext cx="5003923" cy="3579"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289322</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>435495</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686267B8-308F-407B-B912-72EB586B8AF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4539853" y="4542227"/>
+          <a:ext cx="5003923" cy="3579"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>268613</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142159</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A99152-C718-4063-9D5D-CF48608B613A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10063370" y="1987826"/>
+          <a:ext cx="11852" cy="3488333"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289034</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>70964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261871</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576F0B5B-2CD6-46FF-A07E-06DB419F7F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4565431" y="1975964"/>
+          <a:ext cx="5471061" cy="1295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279181</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>252018</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D89ACE-489E-499B-9626-F67CA8D9BFEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4536123" y="4562368"/>
+          <a:ext cx="5446049" cy="1295"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579782</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>603230</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>137189</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC689E6-066D-4A82-BC74-03D74B9B0A53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10386391" y="1913283"/>
+          <a:ext cx="23448" cy="3557906"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295603</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>585064</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177381</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51155F61-8F85-4113-9912-874C140ADEB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4572000" y="1885293"/>
+          <a:ext cx="5787685" cy="6588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>278423</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>353130</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66BC995C-80A9-45DD-8447-34D319DAE358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4535365" y="4674577"/>
+          <a:ext cx="6764188" cy="18211"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284285</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358992</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>170611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AFD6F4-8D86-4B9C-ACA1-7794073B5335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4541227" y="1676400"/>
+          <a:ext cx="6764188" cy="18211"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>319366</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>169208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="69" name="Chart 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95774E5-BF57-38DA-3196-5653DA1F900B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14765,9 +17885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5734E33E-62FC-4879-B1EA-CA5295C290FA}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16782,6 +19902,220 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C556590-DD5A-422F-B14B-A5D0D88CE436}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3.5</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>24.5</v>
+      </c>
+      <c r="C6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>25.2</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>26.1</v>
+      </c>
+      <c r="C9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="B17">
+        <v>-0.90920000000000001</v>
+      </c>
+      <c r="C17">
+        <v>15.663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C19">
+        <v>20.888000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A4F017-176D-4B58-A404-F75FE29B8864}">
   <dimension ref="A1:O70"/>
   <sheetViews>

--- a/1_DesignCode/ISP derivation method accuracy analysis.xlsx
+++ b/1_DesignCode/ISP derivation method accuracy analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\LADS-GIT-Repos\1_DesignCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7383065-2D34-4788-949F-FBAA63A47030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900A4E7-F657-4D67-ADF0-4E29A8D4C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex Analysis" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t>O/F</t>
   </si>
@@ -412,6 +412,102 @@
   </si>
   <si>
     <t>Yn80B</t>
+  </si>
+  <si>
+    <t>Ye70</t>
+  </si>
+  <si>
+    <t>Yn70</t>
+  </si>
+  <si>
+    <t>Ye70A1</t>
+  </si>
+  <si>
+    <t>Ye70A2</t>
+  </si>
+  <si>
+    <t>Ye70B</t>
+  </si>
+  <si>
+    <t>Yn70A1</t>
+  </si>
+  <si>
+    <t>Yn70A2</t>
+  </si>
+  <si>
+    <t>Yn70B</t>
+  </si>
+  <si>
+    <t>Ye60</t>
+  </si>
+  <si>
+    <t>Yn60</t>
+  </si>
+  <si>
+    <t>Ye60A1</t>
+  </si>
+  <si>
+    <t>Ye60A2</t>
+  </si>
+  <si>
+    <t>Ye60B</t>
+  </si>
+  <si>
+    <t>Yn60A1</t>
+  </si>
+  <si>
+    <t>Yn60A2</t>
+  </si>
+  <si>
+    <t>Yn60B</t>
+  </si>
+  <si>
+    <t>Ye90</t>
+  </si>
+  <si>
+    <t>Yn90</t>
+  </si>
+  <si>
+    <t>Ye100</t>
+  </si>
+  <si>
+    <t>Yn100</t>
+  </si>
+  <si>
+    <t>Ye90A1</t>
+  </si>
+  <si>
+    <t>Ye90A2</t>
+  </si>
+  <si>
+    <t>Ye90B</t>
+  </si>
+  <si>
+    <t>Yn90A1</t>
+  </si>
+  <si>
+    <t>Yn90A2</t>
+  </si>
+  <si>
+    <t>Yn90B</t>
+  </si>
+  <si>
+    <t>Ye100A1</t>
+  </si>
+  <si>
+    <t>Yn100A1</t>
+  </si>
+  <si>
+    <t>Ye100A2</t>
+  </si>
+  <si>
+    <t>Ye100B</t>
+  </si>
+  <si>
+    <t>Yn100A2</t>
+  </si>
+  <si>
+    <t>Yn100B</t>
   </si>
 </sst>
 </file>
@@ -6009,7 +6105,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12064875203976817"/>
+          <c:y val="2.4691358024691357E-2"/>
+          <c:w val="0.76183426791514175"/>
+          <c:h val="0.92341578514806866"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -6056,10 +6162,60 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.6678848332536515E-2"/>
-                  <c:y val="-1.4053246059468083E-2"/>
+                  <c:x val="-0.70140047048355048"/>
+                  <c:y val="0.2712332423093578"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0413x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0.475x + 20.888</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6236,10 +6392,60 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.2548260512937297E-2"/>
-                  <c:y val="-5.8689197412413872E-2"/>
+                  <c:x val="1.5192672698972847E-2"/>
+                  <c:y val="-3.4041376141113674E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0188x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0.9092x + 15.663</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6370,6 +6576,1886 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-977D-4C2C-AE75-3D9A39EFE614}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ye70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.058642443006333E-4"/>
+                  <c:y val="-4.0256457841759595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent3"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0116x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent3"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent3"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0.837x + 18.589</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yn70</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.70019312736566763"/>
+                  <c:y val="0.26303684261689508"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0288x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0.674x + 22.528</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ye60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7258936314282655E-4"/>
+                  <c:y val="-5.0848820665093629E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent5"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0237x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent5"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent5"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 1.1289x + 22.888</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yn60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.69951701521965326"/>
+                  <c:y val="0.27585195789920197"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0222x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0.8719x + 24.765</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ye90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.70091022300788508"/>
+                  <c:y val="-0.13475807948248902"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0218x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0.816x + 12.65</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yn90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.70339133130718434"/>
+                  <c:y val="0.26360419594015394"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0405x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0.4752x + 18.899</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ye100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.70315812426216617"/>
+                  <c:y val="-9.9722509433795528E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0257x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0.8079x + 10.527</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-ACC8-4234-B33D-90DA9B9296E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yn100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.69860856268105442"/>
+                  <c:y val="0.2829972516061755"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0.0741x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 0.0271x + 18.675</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-ACC8-4234-B33D-90DA9B9296E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6500,6 +8586,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -10093,13 +12210,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>169376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>172484</xdr:rowOff>
@@ -10137,13 +12254,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>275896</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>72259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>308741</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>78828</xdr:rowOff>
@@ -10187,13 +12304,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>302172</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>80142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>303486</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>124810</xdr:rowOff>
@@ -10237,13 +12354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>264072</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>1314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>296917</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>7883</xdr:rowOff>
@@ -10287,13 +12404,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>505810</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>137948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>506452</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>116159</xdr:rowOff>
@@ -10337,13 +12454,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>275896</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>144517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>507124</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -10387,13 +12504,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>282305</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>84114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>513533</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>91997</xdr:rowOff>
@@ -10437,13 +12554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>221263</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>26276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>223345</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>135866</xdr:rowOff>
@@ -10487,13 +12604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>275896</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>28904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>206266</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>39414</xdr:rowOff>
@@ -10537,13 +12654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>283779</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>10511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>214149</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>21021</xdr:rowOff>
@@ -10587,13 +12704,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>478968</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>490904</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>121212</xdr:rowOff>
@@ -10637,13 +12754,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>278423</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>109500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>496817</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>117231</xdr:rowOff>
@@ -10687,13 +12804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>262304</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>100708</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>480698</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>108439</xdr:rowOff>
@@ -10737,13 +12854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>119948</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>154342</xdr:rowOff>
@@ -10787,13 +12904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>283029</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>49629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>116444</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
@@ -10837,13 +12954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>277586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>169372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>111001</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>179614</xdr:rowOff>
@@ -10887,13 +13004,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>310816</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>140368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>314389</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114928</xdr:rowOff>
@@ -10937,13 +13054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>280737</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>144879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>307946</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>155408</xdr:rowOff>
@@ -10987,13 +13104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>277729</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>26568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>304938</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>37097</xdr:rowOff>
@@ -11037,13 +13154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>479534</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>65690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>480341</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>141203</xdr:rowOff>
@@ -11087,13 +13204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>269327</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>72621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>470441</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>91966</xdr:rowOff>
@@ -11137,13 +13254,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>259474</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>55246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>460588</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>74591</xdr:rowOff>
@@ -11187,13 +13304,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>22788</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>27214</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>141203</xdr:rowOff>
@@ -11237,13 +13354,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>283029</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>34521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>22438</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
@@ -11287,13 +13404,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>293914</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>110721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>33323</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
@@ -11337,13 +13454,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>437492</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>131885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>439615</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>133876</xdr:rowOff>
@@ -11387,13 +13504,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>129771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>457658</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>131885</xdr:rowOff>
@@ -11437,13 +13554,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>276958</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>77017</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>448866</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>79131</xdr:rowOff>
@@ -11487,13 +13604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>428572</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>434578</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>125593</xdr:rowOff>
@@ -11537,13 +13654,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>292161</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>129771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>464069</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>131885</xdr:rowOff>
@@ -11587,13 +13704,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>279797</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>186921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>425970</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -11637,13 +13754,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>289322</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>160727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>435495</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>164306</xdr:rowOff>
@@ -11687,13 +13804,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>256761</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>268613</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>142159</xdr:rowOff>
@@ -11737,13 +13854,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>289034</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>70964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>261871</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>72259</xdr:rowOff>
@@ -11787,13 +13904,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>279181</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>180868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>252018</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>182163</xdr:rowOff>
@@ -11837,13 +13954,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>579782</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>603230</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>137189</xdr:rowOff>
@@ -11887,13 +14004,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>295603</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>585064</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>177381</xdr:rowOff>
@@ -11937,13 +14054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>278423</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>102577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>353130</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>120788</xdr:rowOff>
@@ -11987,13 +14104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>284285</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>358992</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>170611</xdr:rowOff>
@@ -12035,18 +14152,4100 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>565337</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14191269-37AB-4867-81FD-B32D747B80FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="100852"/>
+          <a:ext cx="8443072" cy="6099108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>206959</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71519AE1-A73E-41BF-B97E-F13869BEACD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6302959" y="1238250"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200526</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>255671</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CA730F-4A31-4C91-9CBC-6C5FEF3780DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4481763" y="3363829"/>
+          <a:ext cx="1889961" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192505</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7605A934-7890-4BF6-9D9D-51725D27F174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4473742" y="2814386"/>
+          <a:ext cx="1889961" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>39102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>420103</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45118</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58ADE76-5C4A-40C8-B8E1-9840B1F5CD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4471737" y="2706102"/>
+          <a:ext cx="2064419" cy="6016"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>417511</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>105277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>420102</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348EB18E-9667-45A4-832A-5B81010AD6EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6533564" y="1248277"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177466</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>407069</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67176</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63237190-0C8F-4B21-9BD8-9ABCE1166B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4458703" y="3490160"/>
+          <a:ext cx="2064419" cy="6016"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>138780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141371</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDAB26B-FD84-4C62-8200-4613382053DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6866438" y="1255296"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>165434</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>141371</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126331</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F755E2-D00E-4CA4-960A-B59F1264165D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4446671" y="2591803"/>
+          <a:ext cx="2422358" cy="11028"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177466</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>153403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>183481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAB8EAD-01B9-426D-9DE5-2F3DC57A42CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4458703" y="3601453"/>
+          <a:ext cx="2422358" cy="11028"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>416509</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C46E2E4-5D32-440F-AA01-4043AD645CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7144167" y="1257301"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195513</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>3007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6D0A73-F55C-4E69-AD5F-D06CCC6440DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4476750" y="2479507"/>
+          <a:ext cx="2685048" cy="2006"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192505</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431132</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102268</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C965359-2541-4B16-84AE-1E06DD627B61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4473742" y="3719762"/>
+          <a:ext cx="2685048" cy="2006"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32501</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>35092</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>68330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503D76B2-E650-430A-B552-5235BCFA663D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7371764" y="1259306"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>195513</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>155408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32085</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{553C631E-128F-462D-868C-353EBDF0D6C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4476750" y="3774908"/>
+          <a:ext cx="2894598" cy="2004"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>87229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29077</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2894F9-4DC1-4729-929A-720334986D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4473742" y="2373229"/>
+          <a:ext cx="2894598" cy="2004"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>26067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>236622</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>30079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FF616-55F8-45D2-BF45-DAC7C33CD080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4471737" y="2312067"/>
+          <a:ext cx="3104148" cy="4012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>230019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>58153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232610</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9A104E-5022-4B0F-8119-9E287C0012C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7569282" y="1391653"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197518</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>188493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>243640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79D370E-1E68-448E-B117-210F467544AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4478755" y="3807993"/>
+          <a:ext cx="3104148" cy="4012"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>407484</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>410075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>72340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1675CC87-08EC-4E21-80A2-7E38D8E18846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7746747" y="1263316"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185487</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>411079</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55145</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D84CFB-5309-47C9-B52D-118D7369C1E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4466724" y="3865143"/>
+          <a:ext cx="3283618" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192506</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>418098</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E324B8EF-07FD-4D02-AA99-8F46C1353DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4473743" y="2262938"/>
+          <a:ext cx="3283618" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549858</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122322</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010DC39E-B5AC-48E7-9200-20CB1198A94E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7889121" y="1265322"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>568493</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DA06C0-7869-40E0-96A3-96CE6C06CC48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4471737" y="3902240"/>
+          <a:ext cx="3436019" cy="3010"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>329867</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>555459</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49129</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2946D032-542E-4E89-81E1-EC1924BC35AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4611104" y="2144627"/>
+          <a:ext cx="3283618" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>366376</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368967</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72446370-E12D-446F-B8A5-D649F79A8CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8928850" y="1252288"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185487</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA3DBF9-6817-4CBC-AA7E-20B1922FBC38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4466724" y="1894974"/>
+          <a:ext cx="4457700" cy="1001"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>197518</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>373981</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EADF43E-0C3C-41CE-A74C-BC6823BF3B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4478755" y="4047624"/>
+          <a:ext cx="4457700" cy="1001"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>349781</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352372</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5545D1-3966-4C8B-B541-A4F28EB32B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9513488" y="1252288"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>202358</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>378821</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1D355D-F384-43DE-A210-8D2B222C97D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4478755" y="4047624"/>
+          <a:ext cx="4452859" cy="1001"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>164224</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>360428</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D1E517-0BCD-4A5D-83F0-D06C7D5CE009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4440621" y="4148473"/>
+          <a:ext cx="5083514" cy="3113"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178676</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>374880</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC622D7D-C2DD-4609-85DA-11301AA0F260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4455073" y="1699563"/>
+          <a:ext cx="5083514" cy="3113"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>173733</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62626</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Connector 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B90A347B-DEC2-470B-AD40-8D256D846A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9948354" y="1253602"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>592520</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>4770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177810</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D16ED20D-ED08-46BA-9B6F-AA63212A510C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4868917" y="4195770"/>
+          <a:ext cx="5083514" cy="3113"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>593835</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F99CCD-3CA4-450E-A177-164FE2056842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4870232" y="1615480"/>
+          <a:ext cx="5083514" cy="3113"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>496926</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>499517</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Connector 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7B0651-891D-4CFF-9EC6-5AE2465BEFBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10271547" y="1254916"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>317938</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>514141</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48611</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEC9FBE-882D-4F59-9BDC-C082ABA1E045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5205248" y="4236498"/>
+          <a:ext cx="5083514" cy="3113"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>307741</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>310332</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45547</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Connector 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391BB7FD-638E-4A22-A705-3F152BC0A1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11304189" y="1236523"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177362</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285542</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132208</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500D63F1-C16B-4A9B-8B1C-B7AD72EA42F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4453759" y="4315810"/>
+          <a:ext cx="6828231" cy="7398"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>191814</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>299994</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>159798</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5BB33D-F14C-43DB-A9EB-22CA1BDAA3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4468211" y="1295400"/>
+          <a:ext cx="6828231" cy="7398"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558511</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>529936</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C592FB-E444-4AC1-B402-C160ADD47C35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606511" y="0"/>
+          <a:ext cx="8505825" cy="6099108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139851</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>164718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1134E93-5407-4298-AC76-67C9B6FA8AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4407051" y="2441541"/>
+          <a:ext cx="1864795" cy="9177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167986</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170577</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Straight Connector 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A05F04-988D-418F-95DE-B9CCD2029699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6263986" y="1152525"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>378538</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381129</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>162076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Straight Connector 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A3C4C6-8AB4-4CDE-941B-1E6E4ADC9E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6474538" y="1162552"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99807</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>26571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>102398</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169095</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Connector 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EBA5C5-7264-4F36-888E-4E3AA8A1F3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6805407" y="1169571"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>377536</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>380127</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD782E6D-AD54-4F82-B11A-6839B0CF03FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7083136" y="1171576"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>603128</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>605719</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>173105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Connector 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA0D0E2-833C-4148-95D7-4DFBDAFA16B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7308728" y="1173581"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>191046</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>162928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193637</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114952</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27AA9A48-B56A-4C56-B690-6924B06AD6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7506246" y="1305928"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>368511</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371102</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF1630A-F6EB-40F6-831A-76CD0854916C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7683711" y="1177591"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510885</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>36597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>513476</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="Straight Connector 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F550A16-6729-4E42-ABFF-5E38D8D767FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7826085" y="1179597"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>327403</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>329994</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="Straight Connector 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50D4BB6-B4B7-475D-810D-F963227C99A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8861803" y="1166563"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>310808</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313399</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="Straight Connector 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ED8388-9492-4DEE-B620-B4111AFC8E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9454808" y="1166563"/>
+          <a:ext cx="2591" cy="4143024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>134760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="Straight Connector 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98E8C70-07E6-4DAF-92EE-514B50BECA95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9888360" y="914400"/>
+          <a:ext cx="8115" cy="4396501"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457953</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="Straight Connector 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2178A50-349A-4C7C-8F34-002FF7DF7EDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10211553" y="952500"/>
+          <a:ext cx="8772" cy="4359715"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158073</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>194068</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="Straight Connector 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D6EA13-46CA-4AD5-A5F8-F7E7A36FEB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6287203" y="2822541"/>
+          <a:ext cx="1874735" cy="9177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379598</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="Straight Connector 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3E3F4E-7AF6-49DE-B92D-6195BF7F9E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6278217" y="2925245"/>
+          <a:ext cx="2069251" cy="15081"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>382911</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28161</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="Straight Connector 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F7D5CF-E8DD-48F6-B402-1905576943D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6281530" y="2299080"/>
+          <a:ext cx="2069251" cy="15081"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157370</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>79768</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="Straight Connector 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CA115A1-D679-4AA1-9568-13FA42278E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6286500" y="2153306"/>
+          <a:ext cx="2374051" cy="172"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177248</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="Straight Connector 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F66E99-60FB-4ED1-87BB-62A653B9069A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6306378" y="3117402"/>
+          <a:ext cx="2374051" cy="172"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389538</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135663</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="Straight Connector 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86383C14-6BB9-4FDC-943C-0256B6D9A203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6261652" y="2037522"/>
+          <a:ext cx="2708669" cy="3141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127553</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>384569</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A67C001-B047-4E45-A476-1A5E64C8E7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6256683" y="3258378"/>
+          <a:ext cx="2708669" cy="3141"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3568</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Connector 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C321767-2558-408E-AA0E-7D0489F7EA5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6278217" y="1928020"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144117</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>611511</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127551</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="Straight Connector 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F51000-FF8A-49A2-ADBC-E0CB5427669B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6273247" y="3355941"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313082</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167563</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155711</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Connector 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7ABBF9-3D60-4AEB-A510-D0EF82E2564B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6442212" y="3384101"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>515177</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369658</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18219</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="Straight Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CDC7C1-AD3C-4102-A0CD-95A8C36370FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6644307" y="3437109"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>197381</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93182CB-9612-4394-BDE6-58D2A190F50B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6472030" y="1823659"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>503583</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358064</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F46127-C3BA-47FF-AE56-5C2EFD7BD11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6632713" y="1768993"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26505</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493899</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19DA66D-0C98-4AB6-8473-E7ADDD2D2BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6768548" y="1689480"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29818</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>497212</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>62946</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2889CEAA-855F-49F2-92D0-A4631BD7D317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6771861" y="3481836"/>
+          <a:ext cx="2919047" cy="10110"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>326590</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="Straight Connector 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F620D21-154E-49EB-8C7C-8372C40F69F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6261652" y="3667367"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168966</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>363034</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12429C6D-9DB1-43C9-8F00-3378241A54DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6298096" y="1359832"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122583</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>316651</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="Straight Connector 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFE2574-383C-4A93-A5D4-058C7874DD5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6864626" y="1230623"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177248</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371316</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="Straight Connector 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246EA3A0-AD2E-4993-9584-F3336A441FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6919291" y="3728658"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>528430</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>162166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>109585</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172277</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Straight Connector 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DA867-5A51-4A64-BE94-13EFA13D0B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7270473" y="3781666"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>540027</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121182</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="Straight Connector 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8054FDF0-F7EC-455F-899B-FB8F7DC250ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7282070" y="1134545"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>319366</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>169208</xdr:rowOff>
+      <xdr:colOff>278295</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472364</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>87795</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Connector 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000BEBE7-A110-4DE4-B4FA-D0822A111AFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7633252" y="1030184"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215347</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409416</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="Straight Connector 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E60B3F-A7F6-464E-9B82-77F39FB29D3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7570304" y="3824736"/>
+          <a:ext cx="4484460" cy="10111"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182218</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>280208</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134006</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B76F93-97E3-45EF-98B1-70485FEF9AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6311348" y="3942522"/>
+          <a:ext cx="6840034" cy="1484"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>177249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>275239</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE33C13-E9BB-4920-98D6-FD6FF805A245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6306379" y="823291"/>
+          <a:ext cx="6840034" cy="1484"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585727</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>557152</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="148" name="Picture 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D327D5-28AF-49C7-AAC1-39F590DEE2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6681727" y="0"/>
+          <a:ext cx="8505825" cy="6099108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495819</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>34906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504591</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="Straight Connector 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E969918-FF0F-4E6A-A41E-9F8A090BEF55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13366993" y="987406"/>
+          <a:ext cx="8772" cy="4359715"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>192863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>314398</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="Straight Connector 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034D4534-77BB-456D-9694-4B33A04814F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7547820" y="1724149"/>
+          <a:ext cx="6863578" cy="19931"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577453</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166481</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19903,15 +26102,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C556590-DD5A-422F-B14B-A5D0D88CE436}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -19921,8 +26120,32 @@
       <c r="C1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>3.5</v>
       </c>
@@ -19932,8 +26155,32 @@
       <c r="C2">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>25.25</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>4</v>
       </c>
@@ -19943,8 +26190,32 @@
       <c r="C3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>26.5</v>
+      </c>
+      <c r="H3">
+        <v>11.25</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>5</v>
       </c>
@@ -19954,8 +26225,32 @@
       <c r="C4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>19.5</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>6</v>
       </c>
@@ -19965,8 +26260,32 @@
       <c r="C5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>9.5</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>7.5</v>
+      </c>
+      <c r="K5">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>7</v>
       </c>
@@ -19976,8 +26295,32 @@
       <c r="C6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>14.5</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>17.75</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>22.6</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>8</v>
       </c>
@@ -19987,8 +26330,32 @@
       <c r="C7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>27.5</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>8.9</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>6.8</v>
+      </c>
+      <c r="K7">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>9</v>
       </c>
@@ -19998,8 +26365,32 @@
       <c r="C8">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>13.75</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>16.5</v>
+      </c>
+      <c r="G8">
+        <v>31.5</v>
+      </c>
+      <c r="H8">
+        <v>8.1</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>6.5</v>
+      </c>
+      <c r="K8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>10</v>
       </c>
@@ -20009,8 +26400,32 @@
       <c r="C9">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>13.2</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>32</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>24.1</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>20</v>
       </c>
@@ -20020,8 +26435,32 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>31.1</v>
+      </c>
+      <c r="F10">
+        <v>14.25</v>
+      </c>
+      <c r="G10">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>25.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>30</v>
       </c>
@@ -20031,8 +26470,32 @@
       <c r="C11">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>36</v>
+      </c>
+      <c r="H11">
+        <v>6.3</v>
+      </c>
+      <c r="I11">
+        <v>28.2</v>
+      </c>
+      <c r="J11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>40</v>
       </c>
@@ -20042,8 +26505,32 @@
       <c r="C12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>10.5</v>
+      </c>
+      <c r="E12">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F12">
+        <v>13.25</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>6.1</v>
+      </c>
+      <c r="I12">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>4.8</v>
+      </c>
+      <c r="K12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>50</v>
       </c>
@@ -20053,8 +26540,32 @@
       <c r="C13">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>10.25</v>
+      </c>
+      <c r="E13">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+      <c r="J13">
+        <v>4.5</v>
+      </c>
+      <c r="K13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>100</v>
       </c>
@@ -20064,8 +26575,32 @@
       <c r="C14">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E14">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H14">
+        <v>5.9</v>
+      </c>
+      <c r="I14">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -20075,8 +26610,17 @@
       <c r="C16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>1.8800000000000001E-2</v>
       </c>
@@ -20086,8 +26630,17 @@
       <c r="C17">
         <v>15.663</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F17">
+        <v>20.888000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -20097,8 +26650,17 @@
       <c r="C18" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>4.1300000000000003E-2</v>
       </c>
@@ -20107,6 +26669,139 @@
       </c>
       <c r="C19">
         <v>20.888000000000002</v>
+      </c>
+      <c r="D19">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="F19">
+        <v>18.899000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="B21">
+        <v>-0.83699999999999997</v>
+      </c>
+      <c r="C21">
+        <v>18.588999999999999</v>
+      </c>
+      <c r="D21">
+        <v>2.18E-2</v>
+      </c>
+      <c r="E21">
+        <v>-0.81599999999999995</v>
+      </c>
+      <c r="F21">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="C23">
+        <v>22.527999999999999</v>
+      </c>
+      <c r="D23">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="F23">
+        <v>18.675000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="B25">
+        <v>-1.1289</v>
+      </c>
+      <c r="C25">
+        <v>22.888000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="C27">
+        <v>24.765000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/1_DesignCode/ISP derivation method accuracy analysis.xlsx
+++ b/1_DesignCode/ISP derivation method accuracy analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\LADS-GIT-Repos\1_DesignCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900A4E7-F657-4D67-ADF0-4E29A8D4C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38B24D-E410-4222-9B4E-BB2030DB9A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex Analysis" sheetId="1" r:id="rId1"/>
@@ -18236,16 +18236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>577453</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25003</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>168077</xdr:rowOff>
+      <xdr:rowOff>63302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>166481</xdr:colOff>
+      <xdr:colOff>223631</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>110927</xdr:rowOff>
+      <xdr:rowOff>6152</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26105,7 +26105,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/1_DesignCode/ISP derivation method accuracy analysis.xlsx
+++ b/1_DesignCode/ISP derivation method accuracy analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\LADS-GIT-Repos\1_DesignCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38B24D-E410-4222-9B4E-BB2030DB9A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE267D8D-E768-4B0B-9755-545738A23797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex Analysis" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="Accuracy Analysis" sheetId="5" r:id="rId4"/>
     <sheet name="Analysis 2 raw" sheetId="3" r:id="rId5"/>
     <sheet name="CEArun Nescius" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
-    <sheet name="RPA raw" sheetId="7" r:id="rId8"/>
+    <sheet name="ISP correlation" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="RPA raw" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="170">
   <si>
     <t>O/F</t>
   </si>
@@ -509,11 +532,59 @@
   <si>
     <t>Yn100B</t>
   </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Isp (CEA)</t>
+  </si>
+  <si>
+    <t>Isp fitline</t>
+  </si>
+  <si>
+    <t>Tc fitline</t>
+  </si>
+  <si>
+    <t>Isp fit err</t>
+  </si>
+  <si>
+    <t>Tc err</t>
+  </si>
+  <si>
+    <t>Maximum Error</t>
+  </si>
+  <si>
+    <t>X^7</t>
+  </si>
+  <si>
+    <t>X^6</t>
+  </si>
+  <si>
+    <t>X^5</t>
+  </si>
+  <si>
+    <t>X^4</t>
+  </si>
+  <si>
+    <t>X^3</t>
+  </si>
+  <si>
+    <t>X^2</t>
+  </si>
+  <si>
+    <t>X^1</t>
+  </si>
+  <si>
+    <t>X^0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -590,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -616,6 +687,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6103,6 +6176,2151 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Isp correlations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISP correlation'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isp (CEA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISP correlation'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8499999999999983</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0499999999999976</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2999999999999967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISP correlation'!$B$2:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>58.674821610601427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.353720693170231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.135575942915395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.21202854230376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.92150866462794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160.83588175331295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.14882772680937</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.01325178389399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.51070336391439</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173.29255861365951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175.02548419979613</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>178.6544342507645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183.28236493374106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>190.50968399592253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>199.4189602446483</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207.67584097859324</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>215.01529051987768</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>221.48827726809378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>227.20693170234455</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>232.23241590214064</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>236.61569826707438</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240.38735983690108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>243.58817533129456</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246.24872579001016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>248.38939857288477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250.04077471967381</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251.24362895005095</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252.03873598369009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>252.46687054026501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>252.59938837920487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>252.47706422018348</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>252.16106014271148</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>251.69215086646278</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>251.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>250.43832823649339</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>249.70438328236492</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>248.92966360856269</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>248.12436289500508</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>247.28848114169216</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>246.44240570846074</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>245.58613659531088</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>244.71967380224257</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>243.85321100917429</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>242.99694189602448</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>242.14067278287462</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>241.28440366972475</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240.43832823649333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>239.60244648318042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>238.7665647298675</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>237.95107033639144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>237.13557594291541</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>236.3302752293578</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>235.53516819571863</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>234.75025484199796</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>233.97553516819573</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>233.21100917431193</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>232.44648318042815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-514A-4DF0-BBD8-88086867016F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISP correlation'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isp fitline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISP correlation'!$D$2:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>346.01648334937568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>292.52094782009135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>251.30015618299058</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>220.42373472320014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>198.18348189801191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>183.0750755133754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>173.78075569595239</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>169.15295813547073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>168.1988720721738</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>170.06589750413787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.02797608920719</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179.47277021635182</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>185.88966472119046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>192.85856572049761</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200.03947104036797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207.16278671298187</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>214.02036401654277</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>220.45723153331801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>226.3639967004774</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>231.66989132853359</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>236.3364355621261</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240.35169475794919</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>243.72510375459842</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246.48283300908861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>248.66367107486167</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>250.31539789591534</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>251.49162339208215</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252.2490658099623</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>252.64524431448172</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>252.7365602956952</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>252.57674186574059</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>252.21562602063477</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>251.69825294170641</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>251.06424691149277</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>250.34745831865166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>249.57584122708886</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>248.7715409836137</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>247.95116633905218</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>247.12622055794509</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>246.30366599097852</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>245.48659658528504</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>244.67499280753054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>243.86653345412651</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>243.05743882379556</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>242.24331972688833</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>241.42000680633737</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>240.58433464546124</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>239.73485513629294</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>238.87245458484631</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>238.0008490261871</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>237.12693222575854</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>236.26095084075951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>235.4164812164463</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>234.6101822929968</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>233.86129909567626</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>233.19089128634096</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>232.62076124674877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-514A-4DF0-BBD8-88086867016F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1454583168"/>
+        <c:axId val="1029251567"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1454583168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>O/F</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029251567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1029251567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Isp</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1454583168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tc correlations</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISP correlation'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tc (K)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISP correlation'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8499999999999983</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0499999999999976</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2999999999999967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISP correlation'!$C$2:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1209.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1250.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1312.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1428.18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1389.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1754.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1913.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2066.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2213.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2352.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2484.5300000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2607.89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2722.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2826.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2919.63</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3001.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3073.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3132.99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3182.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3222.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3254.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3279.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3299.12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3313.91</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3324.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3332.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3338.35</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3341.74</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3343.42</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3343.69</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3342.76</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3340.82</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3338.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3334.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3330.31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3325.58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3320.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3314.75</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3308.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3302.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3295.79</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3288.9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3281.78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3274.45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3266.93</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3259.23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3251.37</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3243.37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3235.24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3226.98</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3218.61</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3210.14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3201.58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3192.92</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3184.18</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3175.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C15-4276-A4F4-8414ED1ED243}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ISP correlation'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tc fitline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ISP correlation'!$A$2:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1500000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5500000000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7500000000000011</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9500000000000013</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0500000000000012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1500000000000008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.2000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5499999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.5999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.7499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7999999999999985</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8499999999999983</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8999999999999981</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.9999999999999978</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.0499999999999976</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0999999999999974</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1499999999999972</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.1999999999999971</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.2499999999999969</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.2999999999999967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ISP correlation'!$F$2:$F$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>1392.1673135620476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1346.5312393588938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1361.2159065512133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1422.1957812393193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1517.5146015789833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1637.0759225111651</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1772.4471885755192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1916.6769081585044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2064.1245025272583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2210.302403000147</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2351.7299696051632</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2485.7988045767997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2610.6490340429591</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2725.0561312524151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2828.3278546941001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2920.2108744593061</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000.8066601974351</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3070.496204016541</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3129.8731516800835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3179.6849154499796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3220.7813419278391</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3254.0705082447384</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3280.4812199512089</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3300.9317839575524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3316.3046298769623</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3327.4263531202014</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3335.0527530954278</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3339.8584398619423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3342.4305825907213</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3343.2663731806824</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3342.7737783845078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3341.2751537921285</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3339.0132930238178</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3336.1594854866562</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3332.8231560391432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3329.0626599227253</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3324.8968063046195</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3320.3166837860917</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3315.2973612280184</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3309.8090372428996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3303.827211703232</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3297.3414526209235</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3290.3623317467864</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3282.9261022403516</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3275.0966917604237</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3266.964584331392</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3258.642164332181</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3250.2550959597866</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3241.9293115217879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3233.7731819003093</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3225.854442551019</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3218.1714483753749</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3210.618330826037</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3202.9436305955023</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3194.7019792286592</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3185.1984030323365</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3173.4248225992924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C15-4276-A4F4-8414ED1ED243}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="919083231"/>
+        <c:axId val="1605665984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="919083231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>O/F</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1605665984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1605665984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tc</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (K)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919083231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -8862,6 +11080,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11997,6 +14295,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12167,16 +15497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285190</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>206750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>95810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12207,6 +15537,83 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239408B2-C206-345C-5799-FCCD39E1D3F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BFEA48-73AE-A096-E839-39782F0294F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19079,8 +22486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05336B0-7770-4046-AB8E-2A2403B12A8F}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AI34" sqref="AI34"/>
+    <sheetView topLeftCell="L4" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24086,7 +27493,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26101,11 +29508,1755 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE545128-23C9-408D-84C5-1EBC491AB886}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" cm="1">
+        <f t="array" ref="A2:A58">'CEArun Nescius'!A12:A68</f>
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <f>'CEArun Nescius'!D3</f>
+        <v>58.674821610601427</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2:C58">'CEArun Nescius'!C12:C68</f>
+        <v>1170</v>
+      </c>
+      <c r="D2">
+        <f>A2^7*$H$2+A2^6*$I$2+A2^5*$J$2+A2^4*$K$2+$L$2*A2^3+$M$2*A2^2+$N$2*A2+$O$2</f>
+        <v>346.01648334937568</v>
+      </c>
+      <c r="E2" s="15">
+        <f>ABS((D2-B2)/B2)</f>
+        <v>4.8971885018369967</v>
+      </c>
+      <c r="F2">
+        <f>A2^7*$H$4+A2^6*$I$4+A2^5*$J$4+A2^4*$K$4+$L$4*A2^3+$M$4*A2^2+$N$4*A2+$O$4</f>
+        <v>1392.1673135620476</v>
+      </c>
+      <c r="G2" s="15">
+        <f>ABS((F2-C2)/C2)</f>
+        <v>0.1898865927880749</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:O2">LINEST(B9:B58, A9:A58^{1,2,3,4,5,6,7})</f>
+        <v>-6.4825973616704742</v>
+      </c>
+      <c r="I2">
+        <v>116.23319956053916</v>
+      </c>
+      <c r="J2">
+        <v>-870.36376165268632</v>
+      </c>
+      <c r="K2">
+        <v>3512.4756791539589</v>
+      </c>
+      <c r="L2">
+        <v>-8188.8087775445001</v>
+      </c>
+      <c r="M2">
+        <v>10882.695931102933</v>
+      </c>
+      <c r="N2">
+        <v>-7453.1378681786991</v>
+      </c>
+      <c r="O2">
+        <v>2181.4161710093331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B3">
+        <f>'CEArun Nescius'!D4</f>
+        <v>63.353720693170231</v>
+      </c>
+      <c r="C3">
+        <v>1209.6600000000001</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D58" si="0">A3^7*$H$2+A3^6*$I$2+A3^5*$J$2+A3^4*$K$2+$L$2*A3^3+$M$2*A3^2+$N$2*A3+$O$2</f>
+        <v>292.52094782009135</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E58" si="1">ABS((D3-B3)/B3)</f>
+        <v>3.617265483692834</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F58" si="2">A3^7*$H$4+A3^6*$I$4+A3^5*$J$4+A3^4*$K$4+$L$4*A3^3+$M$4*A3^2+$N$4*A3+$O$4</f>
+        <v>1346.5312393588938</v>
+      </c>
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G58" si="3">ABS((F3-C3)/C3)</f>
+        <v>0.11314852054204794</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="B4">
+        <f>'CEArun Nescius'!D5</f>
+        <v>67.135575942915395</v>
+      </c>
+      <c r="C4">
+        <v>1250.29</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>251.30015618299058</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>2.7431742061268407</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1361.2159065512133</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" si="3"/>
+        <v>8.8720142167987667E-2</v>
+      </c>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4:O4">LINEST(C9:C58, A9:A58^{1,2,3,4,5,6,7})</f>
+        <v>-108.35529902041314</v>
+      </c>
+      <c r="I4">
+        <v>1695.512938064383</v>
+      </c>
+      <c r="J4">
+        <v>-11052.425056000735</v>
+      </c>
+      <c r="K4">
+        <v>38600.313140763516</v>
+      </c>
+      <c r="L4">
+        <v>-76934.223726542114</v>
+      </c>
+      <c r="M4">
+        <v>85083.611804264277</v>
+      </c>
+      <c r="N4">
+        <v>-45155.938016112268</v>
+      </c>
+      <c r="O4">
+        <v>10223.234184188521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="B5">
+        <f>'CEArun Nescius'!D6</f>
+        <v>152.21202854230376</v>
+      </c>
+      <c r="C5">
+        <v>1312.22</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>220.42373472320014</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.44813610878287813</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1422.1957812393193</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="3"/>
+        <v>8.3808950663241913E-2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" t="s">
+        <v>165</v>
+      </c>
+      <c r="L5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="B6">
+        <f>'CEArun Nescius'!D7</f>
+        <v>156.92150866462794</v>
+      </c>
+      <c r="C6">
+        <v>1428.18</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>198.18348189801191</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.26294657491197654</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1517.5146015789833</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="3"/>
+        <v>6.2551360177977008E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="B7">
+        <f>'CEArun Nescius'!D8</f>
+        <v>160.83588175331295</v>
+      </c>
+      <c r="C7">
+        <v>1389.99</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>183.0750755133754</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.13827258891254443</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1637.0759225111651</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="3"/>
+        <v>0.17776093533850251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="B8">
+        <f>'CEArun Nescius'!D9</f>
+        <v>164.14882772680937</v>
+      </c>
+      <c r="C8">
+        <v>1754.7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>173.78075569595239</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>5.8678018615967859E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1772.4471885755192</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0114087066461049E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>0.85000000000000031</v>
+      </c>
+      <c r="B9">
+        <f>'CEArun Nescius'!D10</f>
+        <v>167.01325178389399</v>
+      </c>
+      <c r="C9">
+        <v>1913.94</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>169.15295813547073</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2811596257914894E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1916.6769081585044</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4299863937763569E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="B10">
+        <f>'CEArun Nescius'!D11</f>
+        <v>169.51070336391439</v>
+      </c>
+      <c r="C10">
+        <v>2066.91</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>168.1988720721738</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>7.7389289626406729E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2064.1245025272583</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="3"/>
+        <v>1.347662681365688E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>0.9500000000000004</v>
+      </c>
+      <c r="B11">
+        <f>'CEArun Nescius'!D12</f>
+        <v>173.29255861365951</v>
+      </c>
+      <c r="C11">
+        <v>2213.33</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>170.06589750413787</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="1"/>
+        <v>1.861973263788666E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2210.302403000147</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3678922708556356E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="B12">
+        <f>'CEArun Nescius'!D13</f>
+        <v>175.02548419979613</v>
+      </c>
+      <c r="C12">
+        <v>2352.75</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>174.02797608920719</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6992164035395976E-3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>2351.7299696051632</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="3"/>
+        <v>4.3354814359230457E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>1.0500000000000005</v>
+      </c>
+      <c r="B13">
+        <f>'CEArun Nescius'!D14</f>
+        <v>178.6544342507645</v>
+      </c>
+      <c r="C13">
+        <v>2484.5300000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>179.47277021635182</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="1"/>
+        <v>4.5805522209355484E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2485.7988045767997</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="3"/>
+        <v>5.106819305057854E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1.1000000000000005</v>
+      </c>
+      <c r="B14">
+        <f>'CEArun Nescius'!D15</f>
+        <v>183.28236493374106</v>
+      </c>
+      <c r="C14">
+        <v>2607.89</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>185.88966472119046</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4225590052768931E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>2610.6490340429591</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0579564486842732E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1.1500000000000006</v>
+      </c>
+      <c r="B15">
+        <f>'CEArun Nescius'!D16</f>
+        <v>190.50968399592253</v>
+      </c>
+      <c r="C15">
+        <v>2722.03</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>192.85856572049761</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2329461029526208E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>2725.0561312524151</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="3"/>
+        <v>1.1117185528502149E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1.2000000000000006</v>
+      </c>
+      <c r="B16">
+        <f>'CEArun Nescius'!D17</f>
+        <v>199.4189602446483</v>
+      </c>
+      <c r="C16">
+        <v>2826.16</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>200.03947104036797</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="1"/>
+        <v>3.1115937770331429E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>2828.3278546941001</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="3"/>
+        <v>7.6706721986732613E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1.2500000000000007</v>
+      </c>
+      <c r="B17">
+        <f>'CEArun Nescius'!D18</f>
+        <v>207.67584097859324</v>
+      </c>
+      <c r="C17">
+        <v>2919.63</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>207.16278671298187</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4704571470316461E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>2920.2108744593061</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9895481937983923E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1.3000000000000007</v>
+      </c>
+      <c r="B18">
+        <f>'CEArun Nescius'!D19</f>
+        <v>215.01529051987768</v>
+      </c>
+      <c r="C18">
+        <v>3001.98</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>214.02036401654277</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="1"/>
+        <v>4.627236048791286E-3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>3000.8066601974351</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="3"/>
+        <v>3.9085530302163796E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1.3500000000000008</v>
+      </c>
+      <c r="B19">
+        <f>'CEArun Nescius'!D20</f>
+        <v>221.48827726809378</v>
+      </c>
+      <c r="C19">
+        <v>3073.03</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>220.45723153331801</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6550803839057143E-3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>3070.496204016541</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="3"/>
+        <v>8.2452692731902573E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1.4000000000000008</v>
+      </c>
+      <c r="B20">
+        <f>'CEArun Nescius'!D21</f>
+        <v>227.20693170234455</v>
+      </c>
+      <c r="C20">
+        <v>3132.99</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>226.3639967004774</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="1"/>
+        <v>3.7099880516473205E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>3129.8731516800835</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9484783542757682E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1.4500000000000008</v>
+      </c>
+      <c r="B21">
+        <f>'CEArun Nescius'!D22</f>
+        <v>232.23241590214064</v>
+      </c>
+      <c r="C21">
+        <v>3182.52</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>231.66989132853359</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4222482956216128E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>3179.6849154499796</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="3"/>
+        <v>8.9083008119992429E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1.5000000000000009</v>
+      </c>
+      <c r="B22">
+        <f>'CEArun Nescius'!D23</f>
+        <v>236.61569826707438</v>
+      </c>
+      <c r="C22">
+        <v>3222.64</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>236.3364355621261</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1802374356120241E-3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>3220.7813419278391</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7675014030756733E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>1.5500000000000009</v>
+      </c>
+      <c r="B23">
+        <f>'CEArun Nescius'!D24</f>
+        <v>240.38735983690108</v>
+      </c>
+      <c r="C23">
+        <v>3254.61</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>240.35169475794919</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4836503456792371E-4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>3254.0705082447384</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="3"/>
+        <v>1.6576233565978072E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="B24">
+        <f>'CEArun Nescius'!D25</f>
+        <v>243.58817533129456</v>
+      </c>
+      <c r="C24">
+        <v>3279.7</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>243.72510375459842</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6213083052010276E-4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>3280.4812199512089</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="3"/>
+        <v>2.3819860085041181E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>1.650000000000001</v>
+      </c>
+      <c r="B25">
+        <f>'CEArun Nescius'!D26</f>
+        <v>246.24872579001016</v>
+      </c>
+      <c r="C25">
+        <v>3299.12</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>246.48283300908861</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="1"/>
+        <v>9.5069413385752552E-4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>3300.9317839575524</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="3"/>
+        <v>5.491718875192496E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>1.7000000000000011</v>
+      </c>
+      <c r="B26">
+        <f>'CEArun Nescius'!D27</f>
+        <v>248.38939857288477</v>
+      </c>
+      <c r="C26">
+        <v>3313.91</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>248.66367107486167</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1042037363620243E-3</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>3316.3046298769623</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="3"/>
+        <v>7.2259955067048489E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>1.7500000000000011</v>
+      </c>
+      <c r="B27">
+        <f>'CEArun Nescius'!D28</f>
+        <v>250.04077471967381</v>
+      </c>
+      <c r="C27">
+        <v>3324.94</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>250.31539789591534</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="1"/>
+        <v>1.0983135712542063E-3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>3327.4263531202014</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="3"/>
+        <v>7.4778886843110827E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>1.8000000000000012</v>
+      </c>
+      <c r="B28">
+        <f>'CEArun Nescius'!D29</f>
+        <v>251.24362895005095</v>
+      </c>
+      <c r="C28">
+        <v>3332.9</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>251.49162339208215</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="1"/>
+        <v>9.8706758482820095E-4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3335.0527530954278</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="3"/>
+        <v>6.4590989691489984E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>1.8500000000000012</v>
+      </c>
+      <c r="B29">
+        <f>'CEArun Nescius'!D30</f>
+        <v>252.03873598369009</v>
+      </c>
+      <c r="C29">
+        <v>3338.35</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>252.2490658099623</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3451389109420748E-4</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>3339.8584398619423</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="3"/>
+        <v>4.5185192144095329E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>1.9000000000000012</v>
+      </c>
+      <c r="B30">
+        <f>'CEArun Nescius'!D31</f>
+        <v>252.46687054026501</v>
+      </c>
+      <c r="C30">
+        <v>3341.74</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>252.64524431448172</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="1"/>
+        <v>7.0652348894331826E-4</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>3342.4305825907213</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="3"/>
+        <v>2.0665359684521629E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>1.9500000000000013</v>
+      </c>
+      <c r="B31">
+        <f>'CEArun Nescius'!D32</f>
+        <v>252.59938837920487</v>
+      </c>
+      <c r="C31">
+        <v>3343.42</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>252.7365602956952</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="1"/>
+        <v>5.4304136431402271E-4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>3343.2663731806824</v>
+      </c>
+      <c r="G31" s="15">
+        <f t="shared" si="3"/>
+        <v>4.5949004108861915E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>2.0000000000000013</v>
+      </c>
+      <c r="B32">
+        <f>'CEArun Nescius'!D33</f>
+        <v>252.47706422018348</v>
+      </c>
+      <c r="C32">
+        <v>3343.69</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>252.57674186574059</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9479881416151064E-4</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>3342.7737783845078</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="3"/>
+        <v>2.7401511967087392E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>2.0500000000000012</v>
+      </c>
+      <c r="B33">
+        <f>'CEArun Nescius'!D34</f>
+        <v>252.16106014271148</v>
+      </c>
+      <c r="C33">
+        <v>3342.76</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>252.21562602063477</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="1"/>
+        <v>2.1639295889862371E-4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>3341.2751537921285</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="3"/>
+        <v>4.4419767134693162E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="B34">
+        <f>'CEArun Nescius'!D35</f>
+        <v>251.69215086646278</v>
+      </c>
+      <c r="C34">
+        <v>3340.82</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>251.69825294170641</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4244201587635311E-5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>3339.0132930238178</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="3"/>
+        <v>5.4079746175559901E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>2.1500000000000008</v>
+      </c>
+      <c r="B35">
+        <f>'CEArun Nescius'!D36</f>
+        <v>251.11111111111111</v>
+      </c>
+      <c r="C35">
+        <v>3338.02</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>251.06424691149277</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8662734361286144E-4</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>3336.1594854866562</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="3"/>
+        <v>5.5737069081185473E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>2.2000000000000006</v>
+      </c>
+      <c r="B36">
+        <f>'CEArun Nescius'!D37</f>
+        <v>250.43832823649339</v>
+      </c>
+      <c r="C36">
+        <v>3334.48</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>250.34745831865166</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="1"/>
+        <v>3.6284349317297507E-4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>3332.8231560391432</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="3"/>
+        <v>4.9688226075934004E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>2.2500000000000004</v>
+      </c>
+      <c r="B37">
+        <f>'CEArun Nescius'!D38</f>
+        <v>249.70438328236492</v>
+      </c>
+      <c r="C37">
+        <v>3330.31</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>249.57584122708886</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="1"/>
+        <v>5.1477692776703105E-4</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>3329.0626599227253</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="3"/>
+        <v>3.7454173253380536E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="B38">
+        <f>'CEArun Nescius'!D39</f>
+        <v>248.92966360856269</v>
+      </c>
+      <c r="C38">
+        <v>3325.58</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>248.7715409836137</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3521005354200068E-4</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>3324.8968063046195</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="3"/>
+        <v>2.0543595263995939E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>2.35</v>
+      </c>
+      <c r="B39">
+        <f>'CEArun Nescius'!D40</f>
+        <v>248.12436289500508</v>
+      </c>
+      <c r="C39">
+        <v>3320.38</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>247.95116633905218</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="1"/>
+        <v>6.9802317649149035E-4</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>3320.3166837860917</v>
+      </c>
+      <c r="G39" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9068966175065857E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>2.4</v>
+      </c>
+      <c r="B40">
+        <f>'CEArun Nescius'!D41</f>
+        <v>247.28848114169216</v>
+      </c>
+      <c r="C40">
+        <v>3314.75</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>247.12622055794509</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="1"/>
+        <v>6.5615908593048247E-4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>3315.2973612280184</v>
+      </c>
+      <c r="G40" s="15">
+        <f t="shared" si="3"/>
+        <v>1.65128962370742E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>2.4499999999999997</v>
+      </c>
+      <c r="B41">
+        <f>'CEArun Nescius'!D42</f>
+        <v>246.44240570846074</v>
+      </c>
+      <c r="C41">
+        <v>3308.75</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>246.30366599097852</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6297014746054669E-4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>3309.8090372428996</v>
+      </c>
+      <c r="G41" s="15">
+        <f t="shared" si="3"/>
+        <v>3.2007170166970878E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>2.4999999999999996</v>
+      </c>
+      <c r="B42">
+        <f>'CEArun Nescius'!D43</f>
+        <v>245.58613659531088</v>
+      </c>
+      <c r="C42">
+        <v>3302.41</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>245.48659658528504</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="1"/>
+        <v>4.0531607934311326E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>3303.827211703232</v>
+      </c>
+      <c r="G42" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2914468622374857E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>2.5499999999999994</v>
+      </c>
+      <c r="B43">
+        <f>'CEArun Nescius'!D44</f>
+        <v>244.71967380224257</v>
+      </c>
+      <c r="C43">
+        <v>3295.79</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>244.67499280753054</v>
+      </c>
+      <c r="E43" s="15">
+        <f t="shared" si="1"/>
+        <v>1.8258031329402216E-4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>3297.3414526209235</v>
+      </c>
+      <c r="G43" s="15">
+        <f t="shared" si="3"/>
+        <v>4.707377050490339E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>2.5999999999999992</v>
+      </c>
+      <c r="B44">
+        <f>'CEArun Nescius'!D45</f>
+        <v>243.85321100917429</v>
+      </c>
+      <c r="C44">
+        <v>3288.9</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>243.86653345412651</v>
+      </c>
+      <c r="E44" s="15">
+        <f t="shared" si="1"/>
+        <v>5.4633051158477069E-5</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>3290.3623317467864</v>
+      </c>
+      <c r="G44" s="15">
+        <f t="shared" si="3"/>
+        <v>4.4462639386611821E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>2.649999999999999</v>
+      </c>
+      <c r="B45">
+        <f>'CEArun Nescius'!D46</f>
+        <v>242.99694189602448</v>
+      </c>
+      <c r="C45">
+        <v>3281.78</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>243.05743882379556</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="1"/>
+        <v>2.4896168362879866E-4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>3282.9261022403516</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4923189255568949E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>2.6999999999999988</v>
+      </c>
+      <c r="B46">
+        <f>'CEArun Nescius'!D47</f>
+        <v>242.14067278287462</v>
+      </c>
+      <c r="C46">
+        <v>3274.45</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>242.24331972688833</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2391450735645736E-4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>3275.0966917604237</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="3"/>
+        <v>1.9749630027146285E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>2.7499999999999987</v>
+      </c>
+      <c r="B47">
+        <f>'CEArun Nescius'!D48</f>
+        <v>241.28440366972475</v>
+      </c>
+      <c r="C47">
+        <v>3266.93</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>241.42000680633737</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6200539508650753E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>3266.964584331392</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="3"/>
+        <v>1.0586186845792541E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>2.7999999999999985</v>
+      </c>
+      <c r="B48">
+        <f>'CEArun Nescius'!D49</f>
+        <v>240.43832823649333</v>
+      </c>
+      <c r="C48">
+        <v>3259.23</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>240.58433464546124</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="1"/>
+        <v>6.0725097383099299E-4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>3258.642164332181</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="3"/>
+        <v>1.8036028995162531E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>2.8499999999999983</v>
+      </c>
+      <c r="B49">
+        <f>'CEArun Nescius'!D50</f>
+        <v>239.60244648318042</v>
+      </c>
+      <c r="C49">
+        <v>3251.37</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>239.73485513629294</v>
+      </c>
+      <c r="E49" s="15">
+        <f t="shared" si="1"/>
+        <v>5.5261811828709849E-4</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>3250.2550959597866</v>
+      </c>
+      <c r="G49" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4290285024876665E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>2.8999999999999981</v>
+      </c>
+      <c r="B50">
+        <f>'CEArun Nescius'!D51</f>
+        <v>238.7665647298675</v>
+      </c>
+      <c r="C50">
+        <v>3243.37</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>238.87245458484631</v>
+      </c>
+      <c r="E50" s="15">
+        <f t="shared" si="1"/>
+        <v>4.4348694759089398E-4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>3241.9293115217879</v>
+      </c>
+      <c r="G50" s="15">
+        <f t="shared" si="3"/>
+        <v>4.4419492016390235E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>2.949999999999998</v>
+      </c>
+      <c r="B51">
+        <f>'CEArun Nescius'!D52</f>
+        <v>237.95107033639144</v>
+      </c>
+      <c r="C51">
+        <v>3235.24</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>238.0008490261871</v>
+      </c>
+      <c r="E51" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0919716698599656E-4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>3233.7731819003093</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" si="3"/>
+        <v>4.5338772384444416E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>2.9999999999999978</v>
+      </c>
+      <c r="B52">
+        <f>'CEArun Nescius'!D53</f>
+        <v>237.13557594291541</v>
+      </c>
+      <c r="C52">
+        <v>3226.98</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>237.12693222575854</v>
+      </c>
+      <c r="E52" s="15">
+        <f t="shared" si="1"/>
+        <v>3.6450528869411852E-5</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>3225.854442551019</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="3"/>
+        <v>3.4879591722942154E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>3.0499999999999976</v>
+      </c>
+      <c r="B53">
+        <f>'CEArun Nescius'!D54</f>
+        <v>236.3302752293578</v>
+      </c>
+      <c r="C53">
+        <v>3218.61</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>236.26095084075951</v>
+      </c>
+      <c r="E53" s="15">
+        <f t="shared" si="1"/>
+        <v>2.9333689274897338E-4</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
+        <v>3218.1714483753749</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="3"/>
+        <v>1.3625497485723144E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>3.0999999999999974</v>
+      </c>
+      <c r="B54">
+        <f>'CEArun Nescius'!D55</f>
+        <v>235.53516819571863</v>
+      </c>
+      <c r="C54">
+        <v>3210.14</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>235.4164812164463</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="1"/>
+        <v>5.0390343056414596E-4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>3210.618330826037</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="3"/>
+        <v>1.4900621967799181E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>3.1499999999999972</v>
+      </c>
+      <c r="B55">
+        <f>'CEArun Nescius'!D56</f>
+        <v>234.75025484199796</v>
+      </c>
+      <c r="C55">
+        <v>3201.58</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>234.6101822929968</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="1"/>
+        <v>5.9668752690146727E-4</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>3202.9436305955023</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2592426099063589E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>3.1999999999999971</v>
+      </c>
+      <c r="B56">
+        <f>'CEArun Nescius'!D57</f>
+        <v>233.97553516819573</v>
+      </c>
+      <c r="C56">
+        <v>3192.92</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>233.86129909567626</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="1"/>
+        <v>4.8823938980353262E-4</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>3194.7019792286592</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="3"/>
+        <v>5.5810331253495571E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>3.2499999999999969</v>
+      </c>
+      <c r="B57">
+        <f>'CEArun Nescius'!D58</f>
+        <v>233.21100917431193</v>
+      </c>
+      <c r="C57">
+        <v>3184.18</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>233.19089128634096</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="1"/>
+        <v>8.6264743856632092E-5</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>3185.1984030323365</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="3"/>
+        <v>3.1983211763677438E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>3.2999999999999967</v>
+      </c>
+      <c r="B58">
+        <f>'CEArun Nescius'!D59</f>
+        <v>232.44648318042815</v>
+      </c>
+      <c r="C58">
+        <v>3175.36</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>232.62076124674877</v>
+      </c>
+      <c r="E58" s="15">
+        <f t="shared" si="1"/>
+        <v>7.4975565960852877E-4</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>3173.4248225992924</v>
+      </c>
+      <c r="G58" s="15">
+        <f t="shared" si="3"/>
+        <v>6.0943559177785943E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="16">
+        <f>MEDIAN(E2:E58)</f>
+        <v>6.9802317649149035E-4</v>
+      </c>
+      <c r="G59" s="16">
+        <f>MEDIAN(G2:G58)</f>
+        <v>4.5338772384444416E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="A59:D59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C556590-DD5A-422F-B14B-A5D0D88CE436}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26810,7 +31961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A4F017-176D-4B58-A404-F75FE29B8864}">
   <dimension ref="A1:O70"/>
   <sheetViews>

--- a/1_DesignCode/ISP derivation method accuracy analysis.xlsx
+++ b/1_DesignCode/ISP derivation method accuracy analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\LADS-GIT-Repos\1_DesignCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE267D8D-E768-4B0B-9755-545738A23797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC3525F-349D-4852-BB90-64557B721DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{F200D95B-9822-4F7C-A1C8-390616B6BA68}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex Analysis" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -681,14 +681,14 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6450,175 +6450,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>58.674821610601427</c:v>
+                  <c:v>173.29255861365951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.353720693170231</c:v>
+                  <c:v>175.02548419979613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.135575942915395</c:v>
+                  <c:v>178.6544342507645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>152.21202854230376</c:v>
+                  <c:v>183.28236493374106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.92150866462794</c:v>
+                  <c:v>190.50968399592253</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.83588175331295</c:v>
+                  <c:v>199.4189602446483</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>164.14882772680937</c:v>
+                  <c:v>207.67584097859324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>167.01325178389399</c:v>
+                  <c:v>215.01529051987768</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>169.51070336391439</c:v>
+                  <c:v>221.48827726809378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>173.29255861365951</c:v>
+                  <c:v>227.20693170234455</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>175.02548419979613</c:v>
+                  <c:v>232.23241590214064</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>178.6544342507645</c:v>
+                  <c:v>236.61569826707438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>183.28236493374106</c:v>
+                  <c:v>240.38735983690108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>190.50968399592253</c:v>
+                  <c:v>243.58817533129456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>199.4189602446483</c:v>
+                  <c:v>246.24872579001016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207.67584097859324</c:v>
+                  <c:v>248.38939857288477</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>215.01529051987768</c:v>
+                  <c:v>250.04077471967381</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>221.48827726809378</c:v>
+                  <c:v>251.24362895005095</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>227.20693170234455</c:v>
+                  <c:v>252.03873598369009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>232.23241590214064</c:v>
+                  <c:v>252.46687054026501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>236.61569826707438</c:v>
+                  <c:v>252.59938837920487</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>240.38735983690108</c:v>
+                  <c:v>252.47706422018348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>243.58817533129456</c:v>
+                  <c:v>252.16106014271148</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>246.24872579001016</c:v>
+                  <c:v>251.69215086646278</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>248.38939857288477</c:v>
+                  <c:v>251.11111111111111</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250.04077471967381</c:v>
+                  <c:v>250.43832823649339</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>251.24362895005095</c:v>
+                  <c:v>249.70438328236492</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>252.03873598369009</c:v>
+                  <c:v>248.92966360856269</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>252.46687054026501</c:v>
+                  <c:v>248.12436289500508</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>252.59938837920487</c:v>
+                  <c:v>247.28848114169216</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>252.47706422018348</c:v>
+                  <c:v>246.44240570846074</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>252.16106014271148</c:v>
+                  <c:v>245.58613659531088</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>251.69215086646278</c:v>
+                  <c:v>244.71967380224257</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>251.11111111111111</c:v>
+                  <c:v>243.85321100917429</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>250.43832823649339</c:v>
+                  <c:v>242.99694189602448</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>249.70438328236492</c:v>
+                  <c:v>242.14067278287462</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>248.92966360856269</c:v>
+                  <c:v>241.28440366972475</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>248.12436289500508</c:v>
+                  <c:v>240.43832823649333</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>247.28848114169216</c:v>
+                  <c:v>239.60244648318042</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>246.44240570846074</c:v>
+                  <c:v>238.7665647298675</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>245.58613659531088</c:v>
+                  <c:v>237.95107033639144</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>244.71967380224257</c:v>
+                  <c:v>237.13557594291541</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>243.85321100917429</c:v>
+                  <c:v>236.3302752293578</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>242.99694189602448</c:v>
+                  <c:v>235.53516819571863</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>242.14067278287462</c:v>
+                  <c:v>234.75025484199796</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>241.28440366972475</c:v>
+                  <c:v>233.97553516819573</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>240.43832823649333</c:v>
+                  <c:v>233.21100917431193</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>239.60244648318042</c:v>
+                  <c:v>232.44648318042815</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>238.7665647298675</c:v>
+                  <c:v>231.70234454638123</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>237.95107033639144</c:v>
+                  <c:v>230.95820591233434</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>237.13557594291541</c:v>
+                  <c:v>230.22426095820589</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>236.3302752293578</c:v>
+                  <c:v>229.50050968399592</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>235.53516819571863</c:v>
+                  <c:v>228.78695208970439</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>234.75025484199796</c:v>
+                  <c:v>228.08358817533127</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>233.97553516819573</c:v>
+                  <c:v>227.38022426095819</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>233.21100917431193</c:v>
+                  <c:v>226.68705402650357</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>232.44648318042815</c:v>
+                  <c:v>226.00407747196735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6663,175 +6663,175 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="57"/>
                 <c:pt idx="0">
-                  <c:v>346.01648334937568</c:v>
+                  <c:v>157.52835897177252</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>292.52094782009135</c:v>
+                  <c:v>166.24276238378664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>251.30015618299058</c:v>
+                  <c:v>175.08846645637163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220.42373472320014</c:v>
+                  <c:v>183.84637900184407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>198.18348189801191</c:v>
+                  <c:v>192.34103100855242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>183.0750755133754</c:v>
+                  <c:v>200.4355025174998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>173.78075569595239</c:v>
+                  <c:v>208.0267050013922</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169.15295813547073</c:v>
+                  <c:v>215.04100832894568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168.1988720721738</c:v>
+                  <c:v>221.43020039729873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>170.06589750413787</c:v>
+                  <c:v>227.1677675153702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174.02797608920719</c:v>
+                  <c:v>232.24548362099563</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179.47277021635182</c:v>
+                  <c:v>236.67029641469554</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>185.88966472119046</c:v>
+                  <c:v>240.46149849290634</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>192.85856572049761</c:v>
+                  <c:v>243.64817156351455</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>200.03947104036797</c:v>
+                  <c:v>246.26689182654115</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207.16278671298187</c:v>
+                  <c:v>248.35968460281526</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>214.02036401654277</c:v>
+                  <c:v>249.97221629347041</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>220.45723153331801</c:v>
+                  <c:v>251.15221175310955</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>226.3639967004774</c:v>
+                  <c:v>251.94808515948637</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>231.66989132853359</c:v>
+                  <c:v>252.40777246252742</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>236.3364355621261</c:v>
+                  <c:v>252.57775349555084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>240.35169475794919</c:v>
+                  <c:v>252.50225183150997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>243.72510375459842</c:v>
+                  <c:v>252.22260046711062</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>246.48283300908861</c:v>
+                  <c:v>251.77676141764834</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>248.66367107486167</c:v>
+                  <c:v>251.19898730539012</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>250.31539789591534</c:v>
+                  <c:v>250.51961302433506</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>251.49162339208215</c:v>
+                  <c:v>249.76496556425116</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>252.2490658099623</c:v>
+                  <c:v>248.95738007672799</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>252.64524431448172</c:v>
+                  <c:v>248.1153102662106</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>252.7365602956952</c:v>
+                  <c:v>247.25352118872217</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>252.57674186574059</c:v>
+                  <c:v>246.38335254122535</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>252.21562602063477</c:v>
+                  <c:v>245.51304052442163</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>251.69825294170641</c:v>
+                  <c:v>244.64808636179907</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>251.06424691149277</c:v>
+                  <c:v>243.79165955782662</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>250.34745831865166</c:v>
+                  <c:v>242.94502397807764</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>249.57584122708886</c:v>
+                  <c:v>242.10797483419879</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>248.7715409836137</c:v>
+                  <c:v>241.27927465645541</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>247.95116633905218</c:v>
+                  <c:v>240.45707633681377</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>247.12622055794509</c:v>
+                  <c:v>239.63932132530067</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>246.30366599097852</c:v>
+                  <c:v>238.82410106259658</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>245.48659658528504</c:v>
+                  <c:v>238.00996973149427</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>244.67499280753054</c:v>
+                  <c:v>237.19619641035206</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>243.86653345412651</c:v>
+                  <c:v>236.3829447111566</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>243.05743882379556</c:v>
+                  <c:v>235.57136798507986</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>242.24331972688833</c:v>
+                  <c:v>234.7636081784608</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>241.42000680633737</c:v>
+                  <c:v>233.96268642197606</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>240.58433464546124</c:v>
+                  <c:v>233.17227343581794</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>239.73485513629294</c:v>
+                  <c:v>232.39632783380057</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>238.87245458484631</c:v>
+                  <c:v>231.63859040921056</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>238.0008490261871</c:v>
+                  <c:v>230.90192248515768</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>237.12693222575854</c:v>
+                  <c:v>230.18747641235291</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>236.26095084075951</c:v>
+                  <c:v>229.49368629721516</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>235.4164812164463</c:v>
+                  <c:v>228.81506704291314</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>234.6101822929968</c:v>
+                  <c:v>228.14080978656443</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>233.86129909567626</c:v>
+                  <c:v>227.45316181489807</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>233.19089128634096</c:v>
+                  <c:v>226.7255790418626</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>232.62076124674877</c:v>
+                  <c:v>225.92063913027482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15540,16 +15540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22191,50 +22191,50 @@
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
@@ -25615,7 +25615,7 @@
       <c r="U1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="16" t="s">
         <v>85</v>
       </c>
       <c r="W1" s="12" t="s">
@@ -25698,7 +25698,7 @@
         <f>L2-B2</f>
         <v>34.1019367991845</v>
       </c>
-      <c r="V2" s="14"/>
+      <c r="V2" s="16"/>
       <c r="X2">
         <v>101325</v>
       </c>
@@ -25767,7 +25767,7 @@
         <f t="shared" ref="U3:U8" si="6">L3-B3</f>
         <v>158.26197757390418</v>
       </c>
-      <c r="V3" s="14"/>
+      <c r="V3" s="16"/>
       <c r="X3">
         <v>101325</v>
       </c>
@@ -25836,7 +25836,7 @@
         <f t="shared" si="6"/>
         <v>13.103975535168161</v>
       </c>
-      <c r="V4" s="14"/>
+      <c r="V4" s="16"/>
       <c r="X4">
         <v>101325</v>
       </c>
@@ -25905,7 +25905,7 @@
         <f t="shared" si="6"/>
         <v>12.093781855249745</v>
       </c>
-      <c r="V5" s="14"/>
+      <c r="V5" s="16"/>
       <c r="X5">
         <v>101325</v>
       </c>
@@ -25977,7 +25977,7 @@
         <f t="shared" si="6"/>
         <v>19.897737003058069</v>
       </c>
-      <c r="V6" s="14"/>
+      <c r="V6" s="16"/>
       <c r="X6">
         <v>101325</v>
       </c>
@@ -26049,7 +26049,7 @@
         <f t="shared" si="6"/>
         <v>43.293170234454635</v>
       </c>
-      <c r="V7" s="14"/>
+      <c r="V7" s="16"/>
       <c r="X7">
         <v>101325</v>
       </c>
@@ -26128,7 +26128,7 @@
         <f t="shared" si="6"/>
         <v>45.355555555555554</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="16"/>
       <c r="X8">
         <v>101325</v>
       </c>
@@ -26193,10 +26193,10 @@
         <f t="shared" si="5"/>
         <v>22.048999999999978</v>
       </c>
-      <c r="V9" s="13" t="s">
+      <c r="V9" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="W9" s="13"/>
+      <c r="W9" s="15"/>
       <c r="X9" t="s">
         <v>91</v>
       </c>
@@ -26326,10 +26326,10 @@
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
-      <c r="V12" s="13" t="s">
+      <c r="V12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="W12" s="13"/>
+      <c r="W12" s="15"/>
       <c r="X12" t="s">
         <v>90</v>
       </c>
@@ -26402,12 +26402,12 @@
       <c r="Z14" s="10"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="7">
         <f>MEDIAN(P2:P9)</f>
         <v>0.11167318770628881</v>
@@ -26426,12 +26426,12 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="7">
         <f>AVERAGE(P15:S15)</f>
         <v>0.10533781967142833</v>
@@ -27491,9 +27491,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5734E33E-62FC-4879-B1EA-CA5295C290FA}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29511,8 +29511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE545128-23C9-408D-84C5-1EBC491AB886}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29539,12 +29539,12 @@
       <c r="G1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" cm="1">
@@ -29552,53 +29552,53 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <f>'CEArun Nescius'!D3</f>
-        <v>58.674821610601427</v>
-      </c>
-      <c r="C2" cm="1">
-        <f t="array" ref="C2:C58">'CEArun Nescius'!C12:C68</f>
+        <f>'CEArun Nescius'!D12</f>
+        <v>173.29255861365951</v>
+      </c>
+      <c r="C2">
+        <f>'CEArun Nescius'!C12</f>
         <v>1170</v>
       </c>
       <c r="D2">
         <f>A2^7*$H$2+A2^6*$I$2+A2^5*$J$2+A2^4*$K$2+$L$2*A2^3+$M$2*A2^2+$N$2*A2+$O$2</f>
-        <v>346.01648334937568</v>
-      </c>
-      <c r="E2" s="15">
+        <v>157.52835897177252</v>
+      </c>
+      <c r="E2" s="13">
         <f>ABS((D2-B2)/B2)</f>
-        <v>4.8971885018369967</v>
+        <v>9.0968704992300822E-2</v>
       </c>
       <c r="F2">
         <f>A2^7*$H$4+A2^6*$I$4+A2^5*$J$4+A2^4*$K$4+$L$4*A2^3+$M$4*A2^2+$N$4*A2+$O$4</f>
         <v>1392.1673135620476</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <f>ABS((F2-C2)/C2)</f>
         <v>0.1898865927880749</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:O2">LINEST(B9:B58, A9:A58^{1,2,3,4,5,6,7})</f>
-        <v>-6.4825973616704742</v>
+        <v>-3.0265801688132168</v>
       </c>
       <c r="I2">
-        <v>116.23319956053916</v>
+        <v>45.460043948091581</v>
       </c>
       <c r="J2">
-        <v>-870.36376165268632</v>
+        <v>-280.89149960359259</v>
       </c>
       <c r="K2">
-        <v>3512.4756791539589</v>
+        <v>910.48302601893351</v>
       </c>
       <c r="L2">
-        <v>-8188.8087775445001</v>
+        <v>-1617.8976348072938</v>
       </c>
       <c r="M2">
-        <v>10882.695931102933</v>
+        <v>1450.5814648672063</v>
       </c>
       <c r="N2">
-        <v>-7453.1378681786991</v>
+        <v>-441.53907189345574</v>
       </c>
       <c r="O2">
-        <v>2181.4161710093331</v>
+        <v>169.07573525991938</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -29606,59 +29606,61 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B3">
-        <f>'CEArun Nescius'!D4</f>
-        <v>63.353720693170231</v>
+        <f>'CEArun Nescius'!D13</f>
+        <v>175.02548419979613</v>
       </c>
       <c r="C3">
+        <f>'CEArun Nescius'!C13</f>
         <v>1209.6600000000001</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D58" si="0">A3^7*$H$2+A3^6*$I$2+A3^5*$J$2+A3^4*$K$2+$L$2*A3^3+$M$2*A3^2+$N$2*A3+$O$2</f>
-        <v>292.52094782009135</v>
-      </c>
-      <c r="E3" s="15">
+        <v>166.24276238378664</v>
+      </c>
+      <c r="E3" s="13">
         <f t="shared" ref="E3:E58" si="1">ABS((D3-B3)/B3)</f>
-        <v>3.617265483692834</v>
+        <v>5.0179674440916158E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F58" si="2">A3^7*$H$4+A3^6*$I$4+A3^5*$J$4+A3^4*$K$4+$L$4*A3^3+$M$4*A3^2+$N$4*A3+$O$4</f>
         <v>1346.5312393588938</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f t="shared" ref="G3:G58" si="3">ABS((F3-C3)/C3)</f>
         <v>0.11314852054204794</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4">
         <v>0.60000000000000009</v>
       </c>
       <c r="B4">
-        <f>'CEArun Nescius'!D5</f>
-        <v>67.135575942915395</v>
+        <f>'CEArun Nescius'!D14</f>
+        <v>178.6544342507645</v>
       </c>
       <c r="C4">
+        <f>'CEArun Nescius'!C14</f>
         <v>1250.29</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>251.30015618299058</v>
-      </c>
-      <c r="E4" s="15">
+        <v>175.08846645637163</v>
+      </c>
+      <c r="E4" s="13">
         <f t="shared" si="1"/>
-        <v>2.7431742061268407</v>
+        <v>1.9960141539994279E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
         <v>1361.2159065512133</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f t="shared" si="3"/>
         <v>8.8720142167987667E-2</v>
       </c>
@@ -29693,25 +29695,26 @@
         <v>0.65000000000000013</v>
       </c>
       <c r="B5">
-        <f>'CEArun Nescius'!D6</f>
-        <v>152.21202854230376</v>
+        <f>'CEArun Nescius'!D15</f>
+        <v>183.28236493374106</v>
       </c>
       <c r="C5">
+        <f>'CEArun Nescius'!C15</f>
         <v>1312.22</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>220.42373472320014</v>
-      </c>
-      <c r="E5" s="15">
+        <v>183.84637900184407</v>
+      </c>
+      <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>0.44813610878287813</v>
+        <v>3.0772958888156234E-3</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
         <v>1422.1957812393193</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f t="shared" si="3"/>
         <v>8.3808950663241913E-2</v>
       </c>
@@ -29745,25 +29748,26 @@
         <v>0.70000000000000018</v>
       </c>
       <c r="B6">
-        <f>'CEArun Nescius'!D7</f>
-        <v>156.92150866462794</v>
+        <f>'CEArun Nescius'!D16</f>
+        <v>190.50968399592253</v>
       </c>
       <c r="C6">
+        <f>'CEArun Nescius'!C16</f>
         <v>1428.18</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>198.18348189801191</v>
-      </c>
-      <c r="E6" s="15">
+        <v>192.34103100855242</v>
+      </c>
+      <c r="E6" s="13">
         <f t="shared" si="1"/>
-        <v>0.26294657491197654</v>
+        <v>9.6128814778207658E-3</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
         <v>1517.5146015789833</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="13">
         <f t="shared" si="3"/>
         <v>6.2551360177977008E-2</v>
       </c>
@@ -29773,25 +29777,26 @@
         <v>0.75000000000000022</v>
       </c>
       <c r="B7">
-        <f>'CEArun Nescius'!D8</f>
-        <v>160.83588175331295</v>
+        <f>'CEArun Nescius'!D17</f>
+        <v>199.4189602446483</v>
       </c>
       <c r="C7">
+        <f>'CEArun Nescius'!C17</f>
         <v>1389.99</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>183.0750755133754</v>
-      </c>
-      <c r="E7" s="15">
+        <v>200.4355025174998</v>
+      </c>
+      <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>0.13827258891254443</v>
+        <v>5.0975206750872417E-3</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
         <v>1637.0759225111651</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="13">
         <f t="shared" si="3"/>
         <v>0.17776093533850251</v>
       </c>
@@ -29801,25 +29806,26 @@
         <v>0.80000000000000027</v>
       </c>
       <c r="B8">
-        <f>'CEArun Nescius'!D9</f>
-        <v>164.14882772680937</v>
+        <f>'CEArun Nescius'!D18</f>
+        <v>207.67584097859324</v>
       </c>
       <c r="C8">
+        <f>'CEArun Nescius'!C18</f>
         <v>1754.7</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>173.78075569595239</v>
-      </c>
-      <c r="E8" s="15">
+        <v>208.0267050013922</v>
+      </c>
+      <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v>5.8678018615967859E-2</v>
+        <v>1.6894792439296059E-3</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
         <v>1772.4471885755192</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="13">
         <f t="shared" si="3"/>
         <v>1.0114087066461049E-2</v>
       </c>
@@ -29829,25 +29835,26 @@
         <v>0.85000000000000031</v>
       </c>
       <c r="B9">
-        <f>'CEArun Nescius'!D10</f>
-        <v>167.01325178389399</v>
+        <f>'CEArun Nescius'!D19</f>
+        <v>215.01529051987768</v>
       </c>
       <c r="C9">
+        <f>'CEArun Nescius'!C19</f>
         <v>1913.94</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>169.15295813547073</v>
-      </c>
-      <c r="E9" s="15">
+        <v>215.04100832894568</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="1"/>
-        <v>1.2811596257914894E-2</v>
+        <v>1.1960921014415499E-4</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
         <v>1916.6769081585044</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="13">
         <f t="shared" si="3"/>
         <v>1.4299863937763569E-3</v>
       </c>
@@ -29857,25 +29864,26 @@
         <v>0.90000000000000036</v>
       </c>
       <c r="B10">
-        <f>'CEArun Nescius'!D11</f>
-        <v>169.51070336391439</v>
+        <f>'CEArun Nescius'!D20</f>
+        <v>221.48827726809378</v>
       </c>
       <c r="C10">
+        <f>'CEArun Nescius'!C20</f>
         <v>2066.91</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>168.1988720721738</v>
-      </c>
-      <c r="E10" s="15">
+        <v>221.43020039729873</v>
+      </c>
+      <c r="E10" s="13">
         <f t="shared" si="1"/>
-        <v>7.7389289626406729E-3</v>
+        <v>2.6221193966284237E-4</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
         <v>2064.1245025272583</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f t="shared" si="3"/>
         <v>1.347662681365688E-3</v>
       </c>
@@ -29885,25 +29893,26 @@
         <v>0.9500000000000004</v>
       </c>
       <c r="B11">
-        <f>'CEArun Nescius'!D12</f>
-        <v>173.29255861365951</v>
+        <f>'CEArun Nescius'!D21</f>
+        <v>227.20693170234455</v>
       </c>
       <c r="C11">
+        <f>'CEArun Nescius'!C21</f>
         <v>2213.33</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>170.06589750413787</v>
-      </c>
-      <c r="E11" s="15">
+        <v>227.1677675153702</v>
+      </c>
+      <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>1.861973263788666E-2</v>
+        <v>1.7237232456294164E-4</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
         <v>2210.302403000147</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <f t="shared" si="3"/>
         <v>1.3678922708556356E-3</v>
       </c>
@@ -29913,25 +29922,26 @@
         <v>1.0000000000000004</v>
       </c>
       <c r="B12">
-        <f>'CEArun Nescius'!D13</f>
-        <v>175.02548419979613</v>
+        <f>'CEArun Nescius'!D22</f>
+        <v>232.23241590214064</v>
       </c>
       <c r="C12">
+        <f>'CEArun Nescius'!C22</f>
         <v>2352.75</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>174.02797608920719</v>
-      </c>
-      <c r="E12" s="15">
+        <v>232.24548362099563</v>
+      </c>
+      <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>5.6992164035395976E-3</v>
+        <v>5.6270003497231281E-5</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
         <v>2351.7299696051632</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f t="shared" si="3"/>
         <v>4.3354814359230457E-4</v>
       </c>
@@ -29941,25 +29951,26 @@
         <v>1.0500000000000005</v>
       </c>
       <c r="B13">
-        <f>'CEArun Nescius'!D14</f>
-        <v>178.6544342507645</v>
+        <f>'CEArun Nescius'!D23</f>
+        <v>236.61569826707438</v>
       </c>
       <c r="C13">
+        <f>'CEArun Nescius'!C23</f>
         <v>2484.5300000000002</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>179.47277021635182</v>
-      </c>
-      <c r="E13" s="15">
+        <v>236.67029641469554</v>
+      </c>
+      <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>4.5805522209355484E-3</v>
+        <v>2.3074609174720645E-4</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
         <v>2485.7988045767997</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f t="shared" si="3"/>
         <v>5.106819305057854E-4</v>
       </c>
@@ -29969,25 +29980,26 @@
         <v>1.1000000000000005</v>
       </c>
       <c r="B14">
-        <f>'CEArun Nescius'!D15</f>
-        <v>183.28236493374106</v>
+        <f>'CEArun Nescius'!D24</f>
+        <v>240.38735983690108</v>
       </c>
       <c r="C14">
+        <f>'CEArun Nescius'!C24</f>
         <v>2607.89</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>185.88966472119046</v>
-      </c>
-      <c r="E14" s="15">
+        <v>240.46149849290634</v>
+      </c>
+      <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>1.4225590052768931E-2</v>
+        <v>3.0841328785158356E-4</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
         <v>2610.6490340429591</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <f t="shared" si="3"/>
         <v>1.0579564486842732E-3</v>
       </c>
@@ -29997,25 +30009,26 @@
         <v>1.1500000000000006</v>
       </c>
       <c r="B15">
-        <f>'CEArun Nescius'!D16</f>
-        <v>190.50968399592253</v>
+        <f>'CEArun Nescius'!D25</f>
+        <v>243.58817533129456</v>
       </c>
       <c r="C15">
+        <f>'CEArun Nescius'!C25</f>
         <v>2722.03</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>192.85856572049761</v>
-      </c>
-      <c r="E15" s="15">
+        <v>243.64817156351455</v>
+      </c>
+      <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>1.2329461029526208E-2</v>
+        <v>2.4630190746487878E-4</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
         <v>2725.0561312524151</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="13">
         <f t="shared" si="3"/>
         <v>1.1117185528502149E-3</v>
       </c>
@@ -30025,25 +30038,26 @@
         <v>1.2000000000000006</v>
       </c>
       <c r="B16">
-        <f>'CEArun Nescius'!D17</f>
-        <v>199.4189602446483</v>
+        <f>'CEArun Nescius'!D26</f>
+        <v>246.24872579001016</v>
       </c>
       <c r="C16">
+        <f>'CEArun Nescius'!C26</f>
         <v>2826.16</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>200.03947104036797</v>
-      </c>
-      <c r="E16" s="15">
+        <v>246.26689182654115</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>3.1115937770331429E-3</v>
+        <v>7.3771088450182043E-5</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
         <v>2828.3278546941001</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="13">
         <f t="shared" si="3"/>
         <v>7.6706721986732613E-4</v>
       </c>
@@ -30053,25 +30067,26 @@
         <v>1.2500000000000007</v>
       </c>
       <c r="B17">
-        <f>'CEArun Nescius'!D18</f>
-        <v>207.67584097859324</v>
+        <f>'CEArun Nescius'!D27</f>
+        <v>248.38939857288477</v>
       </c>
       <c r="C17">
+        <f>'CEArun Nescius'!C27</f>
         <v>2919.63</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>207.16278671298187</v>
-      </c>
-      <c r="E17" s="15">
+        <v>248.35968460281526</v>
+      </c>
+      <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>2.4704571470316461E-3</v>
+        <v>1.1962656313123372E-4</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
         <v>2920.2108744593061</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f t="shared" si="3"/>
         <v>1.9895481937983923E-4</v>
       </c>
@@ -30081,25 +30096,26 @@
         <v>1.3000000000000007</v>
       </c>
       <c r="B18">
-        <f>'CEArun Nescius'!D19</f>
-        <v>215.01529051987768</v>
+        <f>'CEArun Nescius'!D28</f>
+        <v>250.04077471967381</v>
       </c>
       <c r="C18">
+        <f>'CEArun Nescius'!C28</f>
         <v>3001.98</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>214.02036401654277</v>
-      </c>
-      <c r="E18" s="15">
+        <v>249.97221629347041</v>
+      </c>
+      <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>4.627236048791286E-3</v>
+        <v>2.7418898489759498E-4</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
         <v>3000.8066601974351</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <f t="shared" si="3"/>
         <v>3.9085530302163796E-4</v>
       </c>
@@ -30109,25 +30125,26 @@
         <v>1.3500000000000008</v>
       </c>
       <c r="B19">
-        <f>'CEArun Nescius'!D20</f>
-        <v>221.48827726809378</v>
+        <f>'CEArun Nescius'!D29</f>
+        <v>251.24362895005095</v>
       </c>
       <c r="C19">
+        <f>'CEArun Nescius'!C29</f>
         <v>3073.03</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>220.45723153331801</v>
-      </c>
-      <c r="E19" s="15">
+        <v>251.15221175310955</v>
+      </c>
+      <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>4.6550803839057143E-3</v>
+        <v>3.6385876658216569E-4</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
         <v>3070.496204016541</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="13">
         <f t="shared" si="3"/>
         <v>8.2452692731902573E-4</v>
       </c>
@@ -30137,25 +30154,26 @@
         <v>1.4000000000000008</v>
       </c>
       <c r="B20">
-        <f>'CEArun Nescius'!D21</f>
-        <v>227.20693170234455</v>
+        <f>'CEArun Nescius'!D30</f>
+        <v>252.03873598369009</v>
       </c>
       <c r="C20">
+        <f>'CEArun Nescius'!C30</f>
         <v>3132.99</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>226.3639967004774</v>
-      </c>
-      <c r="E20" s="15">
+        <v>251.94808515948637</v>
+      </c>
+      <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>3.7099880516473205E-3</v>
+        <v>3.596702064463087E-4</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
         <v>3129.8731516800835</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <f t="shared" si="3"/>
         <v>9.9484783542757682E-4</v>
       </c>
@@ -30165,25 +30183,26 @@
         <v>1.4500000000000008</v>
       </c>
       <c r="B21">
-        <f>'CEArun Nescius'!D22</f>
-        <v>232.23241590214064</v>
+        <f>'CEArun Nescius'!D31</f>
+        <v>252.46687054026501</v>
       </c>
       <c r="C21">
+        <f>'CEArun Nescius'!C31</f>
         <v>3182.52</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>231.66989132853359</v>
-      </c>
-      <c r="E21" s="15">
+        <v>252.40777246252742</v>
+      </c>
+      <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>2.4222482956216128E-3</v>
+        <v>2.3408250599819686E-4</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
         <v>3179.6849154499796</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="13">
         <f t="shared" si="3"/>
         <v>8.9083008119992429E-4</v>
       </c>
@@ -30193,25 +30212,26 @@
         <v>1.5000000000000009</v>
       </c>
       <c r="B22">
-        <f>'CEArun Nescius'!D23</f>
-        <v>236.61569826707438</v>
+        <f>'CEArun Nescius'!D32</f>
+        <v>252.59938837920487</v>
       </c>
       <c r="C22">
+        <f>'CEArun Nescius'!C32</f>
         <v>3222.64</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>236.3364355621261</v>
-      </c>
-      <c r="E22" s="15">
+        <v>252.57775349555084</v>
+      </c>
+      <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>1.1802374356120241E-3</v>
+        <v>8.564899461099261E-5</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
         <v>3220.7813419278391</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <f t="shared" si="3"/>
         <v>5.7675014030756733E-4</v>
       </c>
@@ -30221,25 +30241,26 @@
         <v>1.5500000000000009</v>
       </c>
       <c r="B23">
-        <f>'CEArun Nescius'!D24</f>
-        <v>240.38735983690108</v>
+        <f>'CEArun Nescius'!D33</f>
+        <v>252.47706422018348</v>
       </c>
       <c r="C23">
+        <f>'CEArun Nescius'!C33</f>
         <v>3254.61</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>240.35169475794919</v>
-      </c>
-      <c r="E23" s="15">
+        <v>252.50225183150997</v>
+      </c>
+      <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>1.4836503456792371E-4</v>
+        <v>9.9761978000984352E-5</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
         <v>3254.0705082447384</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="13">
         <f t="shared" si="3"/>
         <v>1.6576233565978072E-4</v>
       </c>
@@ -30249,25 +30270,26 @@
         <v>1.600000000000001</v>
       </c>
       <c r="B24">
-        <f>'CEArun Nescius'!D25</f>
-        <v>243.58817533129456</v>
+        <f>'CEArun Nescius'!D34</f>
+        <v>252.16106014271148</v>
       </c>
       <c r="C24">
+        <f>'CEArun Nescius'!C34</f>
         <v>3279.7</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>243.72510375459842</v>
-      </c>
-      <c r="E24" s="15">
+        <v>252.22260046711062</v>
+      </c>
+      <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>5.6213083052010276E-4</v>
+        <v>2.4405165636723456E-4</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
         <v>3280.4812199512089</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="13">
         <f t="shared" si="3"/>
         <v>2.3819860085041181E-4</v>
       </c>
@@ -30277,25 +30299,26 @@
         <v>1.650000000000001</v>
       </c>
       <c r="B25">
-        <f>'CEArun Nescius'!D26</f>
-        <v>246.24872579001016</v>
+        <f>'CEArun Nescius'!D35</f>
+        <v>251.69215086646278</v>
       </c>
       <c r="C25">
+        <f>'CEArun Nescius'!C35</f>
         <v>3299.12</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>246.48283300908861</v>
-      </c>
-      <c r="E25" s="15">
+        <v>251.77676141764834</v>
+      </c>
+      <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>9.5069413385752552E-4</v>
+        <v>3.3616682480675918E-4</v>
       </c>
       <c r="F25">
         <f t="shared" si="2"/>
         <v>3300.9317839575524</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <f t="shared" si="3"/>
         <v>5.491718875192496E-4</v>
       </c>
@@ -30305,25 +30328,26 @@
         <v>1.7000000000000011</v>
       </c>
       <c r="B26">
-        <f>'CEArun Nescius'!D27</f>
-        <v>248.38939857288477</v>
+        <f>'CEArun Nescius'!D36</f>
+        <v>251.11111111111111</v>
       </c>
       <c r="C26">
+        <f>'CEArun Nescius'!C36</f>
         <v>3313.91</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>248.66367107486167</v>
-      </c>
-      <c r="E26" s="15">
+        <v>251.19898730539012</v>
+      </c>
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>1.1042037363620243E-3</v>
+        <v>3.4994944624382499E-4</v>
       </c>
       <c r="F26">
         <f t="shared" si="2"/>
         <v>3316.3046298769623</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="13">
         <f t="shared" si="3"/>
         <v>7.2259955067048489E-4</v>
       </c>
@@ -30333,25 +30357,26 @@
         <v>1.7500000000000011</v>
       </c>
       <c r="B27">
-        <f>'CEArun Nescius'!D28</f>
-        <v>250.04077471967381</v>
+        <f>'CEArun Nescius'!D37</f>
+        <v>250.43832823649339</v>
       </c>
       <c r="C27">
+        <f>'CEArun Nescius'!C37</f>
         <v>3324.94</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>250.31539789591534</v>
-      </c>
-      <c r="E27" s="15">
+        <v>250.51961302433506</v>
+      </c>
+      <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>1.0983135712542063E-3</v>
+        <v>3.2457007844625491E-4</v>
       </c>
       <c r="F27">
         <f t="shared" si="2"/>
         <v>3327.4263531202014</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="13">
         <f t="shared" si="3"/>
         <v>7.4778886843110827E-4</v>
       </c>
@@ -30361,25 +30386,26 @@
         <v>1.8000000000000012</v>
       </c>
       <c r="B28">
-        <f>'CEArun Nescius'!D29</f>
-        <v>251.24362895005095</v>
+        <f>'CEArun Nescius'!D38</f>
+        <v>249.70438328236492</v>
       </c>
       <c r="C28">
+        <f>'CEArun Nescius'!C38</f>
         <v>3332.9</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>251.49162339208215</v>
-      </c>
-      <c r="E28" s="15">
+        <v>249.76496556425116</v>
+      </c>
+      <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>9.8706758482820095E-4</v>
+        <v>2.4261601294252996E-4</v>
       </c>
       <c r="F28">
         <f t="shared" si="2"/>
         <v>3335.0527530954278</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="13">
         <f t="shared" si="3"/>
         <v>6.4590989691489984E-4</v>
       </c>
@@ -30389,25 +30415,26 @@
         <v>1.8500000000000012</v>
       </c>
       <c r="B29">
-        <f>'CEArun Nescius'!D30</f>
-        <v>252.03873598369009</v>
+        <f>'CEArun Nescius'!D39</f>
+        <v>248.92966360856269</v>
       </c>
       <c r="C29">
+        <f>'CEArun Nescius'!C39</f>
         <v>3338.35</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>252.2490658099623</v>
-      </c>
-      <c r="E29" s="15">
+        <v>248.95738007672799</v>
+      </c>
+      <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>8.3451389109420748E-4</v>
+        <v>1.1134256867385023E-4</v>
       </c>
       <c r="F29">
         <f t="shared" si="2"/>
         <v>3339.8584398619423</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="13">
         <f t="shared" si="3"/>
         <v>4.5185192144095329E-4</v>
       </c>
@@ -30417,25 +30444,26 @@
         <v>1.9000000000000012</v>
       </c>
       <c r="B30">
-        <f>'CEArun Nescius'!D31</f>
-        <v>252.46687054026501</v>
+        <f>'CEArun Nescius'!D40</f>
+        <v>248.12436289500508</v>
       </c>
       <c r="C30">
+        <f>'CEArun Nescius'!C40</f>
         <v>3341.74</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>252.64524431448172</v>
-      </c>
-      <c r="E30" s="15">
+        <v>248.1153102662106</v>
+      </c>
+      <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>7.0652348894331826E-4</v>
+        <v>3.6484239954739887E-5</v>
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
         <v>3342.4305825907213</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="13">
         <f t="shared" si="3"/>
         <v>2.0665359684521629E-4</v>
       </c>
@@ -30445,25 +30473,26 @@
         <v>1.9500000000000013</v>
       </c>
       <c r="B31">
-        <f>'CEArun Nescius'!D32</f>
-        <v>252.59938837920487</v>
+        <f>'CEArun Nescius'!D41</f>
+        <v>247.28848114169216</v>
       </c>
       <c r="C31">
+        <f>'CEArun Nescius'!C41</f>
         <v>3343.42</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>252.7365602956952</v>
-      </c>
-      <c r="E31" s="15">
+        <v>247.25352118872217</v>
+      </c>
+      <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>5.4304136431402271E-4</v>
+        <v>1.4137315579189059E-4</v>
       </c>
       <c r="F31">
         <f t="shared" si="2"/>
         <v>3343.2663731806824</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="13">
         <f t="shared" si="3"/>
         <v>4.5949004108861915E-5</v>
       </c>
@@ -30473,25 +30502,26 @@
         <v>2.0000000000000013</v>
       </c>
       <c r="B32">
-        <f>'CEArun Nescius'!D33</f>
-        <v>252.47706422018348</v>
+        <f>'CEArun Nescius'!D42</f>
+        <v>246.44240570846074</v>
       </c>
       <c r="C32">
+        <f>'CEArun Nescius'!C42</f>
         <v>3343.69</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>252.57674186574059</v>
-      </c>
-      <c r="E32" s="15">
+        <v>246.38335254122535</v>
+      </c>
+      <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>3.9479881416151064E-4</v>
+        <v>2.3962258875710634E-4</v>
       </c>
       <c r="F32">
         <f t="shared" si="2"/>
         <v>3342.7737783845078</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="13">
         <f t="shared" si="3"/>
         <v>2.7401511967087392E-4</v>
       </c>
@@ -30501,25 +30531,26 @@
         <v>2.0500000000000012</v>
       </c>
       <c r="B33">
-        <f>'CEArun Nescius'!D34</f>
-        <v>252.16106014271148</v>
+        <f>'CEArun Nescius'!D43</f>
+        <v>245.58613659531088</v>
       </c>
       <c r="C33">
+        <f>'CEArun Nescius'!C43</f>
         <v>3342.76</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>252.21562602063477</v>
-      </c>
-      <c r="E33" s="15">
+        <v>245.51304052442163</v>
+      </c>
+      <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>2.1639295889862371E-4</v>
+        <v>2.9763923934232898E-4</v>
       </c>
       <c r="F33">
         <f t="shared" si="2"/>
         <v>3341.2751537921285</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="13">
         <f t="shared" si="3"/>
         <v>4.4419767134693162E-4</v>
       </c>
@@ -30529,25 +30560,26 @@
         <v>2.100000000000001</v>
       </c>
       <c r="B34">
-        <f>'CEArun Nescius'!D35</f>
-        <v>251.69215086646278</v>
+        <f>'CEArun Nescius'!D44</f>
+        <v>244.71967380224257</v>
       </c>
       <c r="C34">
+        <f>'CEArun Nescius'!C44</f>
         <v>3340.82</v>
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>251.69825294170641</v>
-      </c>
-      <c r="E34" s="15">
+        <v>244.64808636179907</v>
+      </c>
+      <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>2.4244201587635311E-5</v>
+        <v>2.9252834204635236E-4</v>
       </c>
       <c r="F34">
         <f t="shared" si="2"/>
         <v>3339.0132930238178</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="13">
         <f t="shared" si="3"/>
         <v>5.4079746175559901E-4</v>
       </c>
@@ -30557,25 +30589,26 @@
         <v>2.1500000000000008</v>
       </c>
       <c r="B35">
-        <f>'CEArun Nescius'!D36</f>
-        <v>251.11111111111111</v>
+        <f>'CEArun Nescius'!D45</f>
+        <v>243.85321100917429</v>
       </c>
       <c r="C35">
+        <f>'CEArun Nescius'!C45</f>
         <v>3338.02</v>
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>251.06424691149277</v>
-      </c>
-      <c r="E35" s="15">
+        <v>243.79165955782662</v>
+      </c>
+      <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>1.8662734361286144E-4</v>
+        <v>2.5241189604574272E-4</v>
       </c>
       <c r="F35">
         <f t="shared" si="2"/>
         <v>3336.1594854866562</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="13">
         <f t="shared" si="3"/>
         <v>5.5737069081185473E-4</v>
       </c>
@@ -30585,25 +30618,26 @@
         <v>2.2000000000000006</v>
       </c>
       <c r="B36">
-        <f>'CEArun Nescius'!D37</f>
-        <v>250.43832823649339</v>
+        <f>'CEArun Nescius'!D46</f>
+        <v>242.99694189602448</v>
       </c>
       <c r="C36">
+        <f>'CEArun Nescius'!C46</f>
         <v>3334.48</v>
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>250.34745831865166</v>
-      </c>
-      <c r="E36" s="15">
+        <v>242.94502397807764</v>
+      </c>
+      <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>3.6284349317297507E-4</v>
+        <v>2.1365667214467724E-4</v>
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
         <v>3332.8231560391432</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="13">
         <f t="shared" si="3"/>
         <v>4.9688226075934004E-4</v>
       </c>
@@ -30613,25 +30647,26 @@
         <v>2.2500000000000004</v>
       </c>
       <c r="B37">
-        <f>'CEArun Nescius'!D38</f>
-        <v>249.70438328236492</v>
+        <f>'CEArun Nescius'!D47</f>
+        <v>242.14067278287462</v>
       </c>
       <c r="C37">
+        <f>'CEArun Nescius'!C47</f>
         <v>3330.31</v>
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>249.57584122708886</v>
-      </c>
-      <c r="E37" s="15">
+        <v>242.10797483419879</v>
+      </c>
+      <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>5.1477692776703105E-4</v>
+        <v>1.3503699440511519E-4</v>
       </c>
       <c r="F37">
         <f t="shared" si="2"/>
         <v>3329.0626599227253</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="13">
         <f t="shared" si="3"/>
         <v>3.7454173253380536E-4</v>
       </c>
@@ -30641,25 +30676,26 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="B38">
-        <f>'CEArun Nescius'!D39</f>
-        <v>248.92966360856269</v>
+        <f>'CEArun Nescius'!D48</f>
+        <v>241.28440366972475</v>
       </c>
       <c r="C38">
+        <f>'CEArun Nescius'!C48</f>
         <v>3325.58</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>248.7715409836137</v>
-      </c>
-      <c r="E38" s="15">
+        <v>241.27927465645541</v>
+      </c>
+      <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>6.3521005354200068E-4</v>
+        <v>2.1257127237947253E-5</v>
       </c>
       <c r="F38">
         <f t="shared" si="2"/>
         <v>3324.8968063046195</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="13">
         <f t="shared" si="3"/>
         <v>2.0543595263995939E-4</v>
       </c>
@@ -30669,25 +30705,26 @@
         <v>2.35</v>
       </c>
       <c r="B39">
-        <f>'CEArun Nescius'!D40</f>
-        <v>248.12436289500508</v>
+        <f>'CEArun Nescius'!D49</f>
+        <v>240.43832823649333</v>
       </c>
       <c r="C39">
+        <f>'CEArun Nescius'!C49</f>
         <v>3320.38</v>
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>247.95116633905218</v>
-      </c>
-      <c r="E39" s="15">
+        <v>240.45707633681377</v>
+      </c>
+      <c r="E39" s="13">
         <f t="shared" si="1"/>
-        <v>6.9802317649149035E-4</v>
+        <v>7.7974674245764766E-5</v>
       </c>
       <c r="F39">
         <f t="shared" si="2"/>
         <v>3320.3166837860917</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="13">
         <f t="shared" si="3"/>
         <v>1.9068966175065857E-5</v>
       </c>
@@ -30697,25 +30734,26 @@
         <v>2.4</v>
       </c>
       <c r="B40">
-        <f>'CEArun Nescius'!D41</f>
-        <v>247.28848114169216</v>
+        <f>'CEArun Nescius'!D50</f>
+        <v>239.60244648318042</v>
       </c>
       <c r="C40">
+        <f>'CEArun Nescius'!C50</f>
         <v>3314.75</v>
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>247.12622055794509</v>
-      </c>
-      <c r="E40" s="15">
+        <v>239.63932132530067</v>
+      </c>
+      <c r="E40" s="13">
         <f t="shared" si="1"/>
-        <v>6.5615908593048247E-4</v>
+        <v>1.5390010687075316E-4</v>
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
         <v>3315.2973612280184</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="13">
         <f t="shared" si="3"/>
         <v>1.65128962370742E-4</v>
       </c>
@@ -30725,25 +30763,26 @@
         <v>2.4499999999999997</v>
       </c>
       <c r="B41">
-        <f>'CEArun Nescius'!D42</f>
-        <v>246.44240570846074</v>
+        <f>'CEArun Nescius'!D51</f>
+        <v>238.7665647298675</v>
       </c>
       <c r="C41">
+        <f>'CEArun Nescius'!C51</f>
         <v>3308.75</v>
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>246.30366599097852</v>
-      </c>
-      <c r="E41" s="15">
+        <v>238.82410106259658</v>
+      </c>
+      <c r="E41" s="13">
         <f t="shared" si="1"/>
-        <v>5.6297014746054669E-4</v>
+        <v>2.409731563302448E-4</v>
       </c>
       <c r="F41">
         <f t="shared" si="2"/>
         <v>3309.8090372428996</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="13">
         <f t="shared" si="3"/>
         <v>3.2007170166970878E-4</v>
       </c>
@@ -30753,25 +30792,26 @@
         <v>2.4999999999999996</v>
       </c>
       <c r="B42">
-        <f>'CEArun Nescius'!D43</f>
-        <v>245.58613659531088</v>
+        <f>'CEArun Nescius'!D52</f>
+        <v>237.95107033639144</v>
       </c>
       <c r="C42">
+        <f>'CEArun Nescius'!C52</f>
         <v>3302.41</v>
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>245.48659658528504</v>
-      </c>
-      <c r="E42" s="15">
+        <v>238.00996973149427</v>
+      </c>
+      <c r="E42" s="13">
         <f t="shared" si="1"/>
-        <v>4.0531607934311326E-4</v>
+        <v>2.47527338370704E-4</v>
       </c>
       <c r="F42">
         <f t="shared" si="2"/>
         <v>3303.827211703232</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="13">
         <f t="shared" si="3"/>
         <v>4.2914468622374857E-4</v>
       </c>
@@ -30781,25 +30821,26 @@
         <v>2.5499999999999994</v>
       </c>
       <c r="B43">
-        <f>'CEArun Nescius'!D44</f>
-        <v>244.71967380224257</v>
+        <f>'CEArun Nescius'!D53</f>
+        <v>237.13557594291541</v>
       </c>
       <c r="C43">
+        <f>'CEArun Nescius'!C53</f>
         <v>3295.79</v>
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>244.67499280753054</v>
-      </c>
-      <c r="E43" s="15">
+        <v>237.19619641035206</v>
+      </c>
+      <c r="E43" s="13">
         <f t="shared" si="1"/>
-        <v>1.8258031329402216E-4</v>
+        <v>2.5563632616323417E-4</v>
       </c>
       <c r="F43">
         <f t="shared" si="2"/>
         <v>3297.3414526209235</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="13">
         <f t="shared" si="3"/>
         <v>4.707377050490339E-4</v>
       </c>
@@ -30809,25 +30850,26 @@
         <v>2.5999999999999992</v>
       </c>
       <c r="B44">
-        <f>'CEArun Nescius'!D45</f>
-        <v>243.85321100917429</v>
+        <f>'CEArun Nescius'!D54</f>
+        <v>236.3302752293578</v>
       </c>
       <c r="C44">
+        <f>'CEArun Nescius'!C54</f>
         <v>3288.9</v>
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>243.86653345412651</v>
-      </c>
-      <c r="E44" s="15">
+        <v>236.3829447111566</v>
+      </c>
+      <c r="E44" s="13">
         <f t="shared" si="1"/>
-        <v>5.4633051158477069E-5</v>
+        <v>2.2286387872940118E-4</v>
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
         <v>3290.3623317467864</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="13">
         <f t="shared" si="3"/>
         <v>4.4462639386611821E-4</v>
       </c>
@@ -30837,25 +30879,26 @@
         <v>2.649999999999999</v>
       </c>
       <c r="B45">
-        <f>'CEArun Nescius'!D46</f>
-        <v>242.99694189602448</v>
+        <f>'CEArun Nescius'!D55</f>
+        <v>235.53516819571863</v>
       </c>
       <c r="C45">
+        <f>'CEArun Nescius'!C55</f>
         <v>3281.78</v>
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>243.05743882379556</v>
-      </c>
-      <c r="E45" s="15">
+        <v>235.57136798507986</v>
+      </c>
+      <c r="E45" s="13">
         <f t="shared" si="1"/>
-        <v>2.4896168362879866E-4</v>
+        <v>1.5369165309171031E-4</v>
       </c>
       <c r="F45">
         <f t="shared" si="2"/>
         <v>3282.9261022403516</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="13">
         <f t="shared" si="3"/>
         <v>3.4923189255568949E-4</v>
       </c>
@@ -30865,25 +30908,26 @@
         <v>2.6999999999999988</v>
       </c>
       <c r="B46">
-        <f>'CEArun Nescius'!D47</f>
-        <v>242.14067278287462</v>
+        <f>'CEArun Nescius'!D56</f>
+        <v>234.75025484199796</v>
       </c>
       <c r="C46">
+        <f>'CEArun Nescius'!C56</f>
         <v>3274.45</v>
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>242.24331972688833</v>
-      </c>
-      <c r="E46" s="15">
+        <v>234.7636081784608</v>
+      </c>
+      <c r="E46" s="13">
         <f t="shared" si="1"/>
-        <v>4.2391450735645736E-4</v>
+        <v>5.6883160667193461E-5</v>
       </c>
       <c r="F46">
         <f t="shared" si="2"/>
         <v>3275.0966917604237</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="13">
         <f t="shared" si="3"/>
         <v>1.9749630027146285E-4</v>
       </c>
@@ -30893,25 +30937,26 @@
         <v>2.7499999999999987</v>
       </c>
       <c r="B47">
-        <f>'CEArun Nescius'!D48</f>
-        <v>241.28440366972475</v>
+        <f>'CEArun Nescius'!D57</f>
+        <v>233.97553516819573</v>
       </c>
       <c r="C47">
+        <f>'CEArun Nescius'!C57</f>
         <v>3266.93</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>241.42000680633737</v>
-      </c>
-      <c r="E47" s="15">
+        <v>233.96268642197606</v>
+      </c>
+      <c r="E47" s="13">
         <f t="shared" si="1"/>
-        <v>5.6200539508650753E-4</v>
+        <v>5.4914913264064182E-5</v>
       </c>
       <c r="F47">
         <f t="shared" si="2"/>
         <v>3266.964584331392</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="13">
         <f t="shared" si="3"/>
         <v>1.0586186845792541E-5</v>
       </c>
@@ -30921,25 +30966,26 @@
         <v>2.7999999999999985</v>
       </c>
       <c r="B48">
-        <f>'CEArun Nescius'!D49</f>
-        <v>240.43832823649333</v>
+        <f>'CEArun Nescius'!D58</f>
+        <v>233.21100917431193</v>
       </c>
       <c r="C48">
+        <f>'CEArun Nescius'!C58</f>
         <v>3259.23</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>240.58433464546124</v>
-      </c>
-      <c r="E48" s="15">
+        <v>233.17227343581794</v>
+      </c>
+      <c r="E48" s="13">
         <f t="shared" si="1"/>
-        <v>6.0725097383099299E-4</v>
+        <v>1.6609738378615954E-4</v>
       </c>
       <c r="F48">
         <f t="shared" si="2"/>
         <v>3258.642164332181</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="13">
         <f t="shared" si="3"/>
         <v>1.8036028995162531E-4</v>
       </c>
@@ -30949,25 +30995,26 @@
         <v>2.8499999999999983</v>
       </c>
       <c r="B49">
-        <f>'CEArun Nescius'!D50</f>
-        <v>239.60244648318042</v>
+        <f>'CEArun Nescius'!D59</f>
+        <v>232.44648318042815</v>
       </c>
       <c r="C49">
+        <f>'CEArun Nescius'!C59</f>
         <v>3251.37</v>
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>239.73485513629294</v>
-      </c>
-      <c r="E49" s="15">
+        <v>232.39632783380057</v>
+      </c>
+      <c r="E49" s="13">
         <f t="shared" si="1"/>
-        <v>5.5261811828709849E-4</v>
+        <v>2.1577158725453948E-4</v>
       </c>
       <c r="F49">
         <f t="shared" si="2"/>
         <v>3250.2550959597866</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="13">
         <f t="shared" si="3"/>
         <v>3.4290285024876665E-4</v>
       </c>
@@ -30977,25 +31024,26 @@
         <v>2.8999999999999981</v>
       </c>
       <c r="B50">
-        <f>'CEArun Nescius'!D51</f>
-        <v>238.7665647298675</v>
+        <f>'CEArun Nescius'!D60</f>
+        <v>231.70234454638123</v>
       </c>
       <c r="C50">
+        <f>'CEArun Nescius'!C60</f>
         <v>3243.37</v>
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>238.87245458484631</v>
-      </c>
-      <c r="E50" s="15">
+        <v>231.63859040921056</v>
+      </c>
+      <c r="E50" s="13">
         <f t="shared" si="1"/>
-        <v>4.4348694759089398E-4</v>
+        <v>2.7515533904275949E-4</v>
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
         <v>3241.9293115217879</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="13">
         <f t="shared" si="3"/>
         <v>4.4419492016390235E-4</v>
       </c>
@@ -31005,25 +31053,26 @@
         <v>2.949999999999998</v>
       </c>
       <c r="B51">
-        <f>'CEArun Nescius'!D52</f>
-        <v>237.95107033639144</v>
+        <f>'CEArun Nescius'!D61</f>
+        <v>230.95820591233434</v>
       </c>
       <c r="C51">
+        <f>'CEArun Nescius'!C61</f>
         <v>3235.24</v>
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>238.0008490261871</v>
-      </c>
-      <c r="E51" s="15">
+        <v>230.90192248515768</v>
+      </c>
+      <c r="E51" s="13">
         <f t="shared" si="1"/>
-        <v>2.0919716698599656E-4</v>
+        <v>2.436952909047779E-4</v>
       </c>
       <c r="F51">
         <f t="shared" si="2"/>
         <v>3233.7731819003093</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="13">
         <f t="shared" si="3"/>
         <v>4.5338772384444416E-4</v>
       </c>
@@ -31033,25 +31082,26 @@
         <v>2.9999999999999978</v>
       </c>
       <c r="B52">
-        <f>'CEArun Nescius'!D53</f>
-        <v>237.13557594291541</v>
+        <f>'CEArun Nescius'!D62</f>
+        <v>230.22426095820589</v>
       </c>
       <c r="C52">
+        <f>'CEArun Nescius'!C62</f>
         <v>3226.98</v>
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>237.12693222575854</v>
-      </c>
-      <c r="E52" s="15">
+        <v>230.18747641235291</v>
+      </c>
+      <c r="E52" s="13">
         <f t="shared" si="1"/>
-        <v>3.6450528869411852E-5</v>
+        <v>1.5977701785155975E-4</v>
       </c>
       <c r="F52">
         <f t="shared" si="2"/>
         <v>3225.854442551019</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="13">
         <f t="shared" si="3"/>
         <v>3.4879591722942154E-4</v>
       </c>
@@ -31061,25 +31111,26 @@
         <v>3.0499999999999976</v>
       </c>
       <c r="B53">
-        <f>'CEArun Nescius'!D54</f>
-        <v>236.3302752293578</v>
+        <f>'CEArun Nescius'!D63</f>
+        <v>229.50050968399592</v>
       </c>
       <c r="C53">
+        <f>'CEArun Nescius'!C63</f>
         <v>3218.61</v>
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>236.26095084075951</v>
-      </c>
-      <c r="E53" s="15">
+        <v>229.49368629721516</v>
+      </c>
+      <c r="E53" s="13">
         <f t="shared" si="1"/>
-        <v>2.9333689274897338E-4</v>
+        <v>2.9731466784746497E-5</v>
       </c>
       <c r="F53">
         <f t="shared" si="2"/>
         <v>3218.1714483753749</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="13">
         <f t="shared" si="3"/>
         <v>1.3625497485723144E-4</v>
       </c>
@@ -31089,25 +31140,26 @@
         <v>3.0999999999999974</v>
       </c>
       <c r="B54">
-        <f>'CEArun Nescius'!D55</f>
-        <v>235.53516819571863</v>
+        <f>'CEArun Nescius'!D64</f>
+        <v>228.78695208970439</v>
       </c>
       <c r="C54">
+        <f>'CEArun Nescius'!C64</f>
         <v>3210.14</v>
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>235.4164812164463</v>
-      </c>
-      <c r="E54" s="15">
+        <v>228.81506704291314</v>
+      </c>
+      <c r="E54" s="13">
         <f t="shared" si="1"/>
-        <v>5.0390343056414596E-4</v>
+        <v>1.2288704819903051E-4</v>
       </c>
       <c r="F54">
         <f t="shared" si="2"/>
         <v>3210.618330826037</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="13">
         <f t="shared" si="3"/>
         <v>1.4900621967799181E-4</v>
       </c>
@@ -31117,25 +31169,26 @@
         <v>3.1499999999999972</v>
       </c>
       <c r="B55">
-        <f>'CEArun Nescius'!D56</f>
-        <v>234.75025484199796</v>
+        <f>'CEArun Nescius'!D65</f>
+        <v>228.08358817533127</v>
       </c>
       <c r="C55">
+        <f>'CEArun Nescius'!C65</f>
         <v>3201.58</v>
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>234.6101822929968</v>
-      </c>
-      <c r="E55" s="15">
+        <v>228.14080978656443</v>
+      </c>
+      <c r="E55" s="13">
         <f t="shared" si="1"/>
-        <v>5.9668752690146727E-4</v>
+        <v>2.5088000276974405E-4</v>
       </c>
       <c r="F55">
         <f t="shared" si="2"/>
         <v>3202.9436305955023</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="13">
         <f t="shared" si="3"/>
         <v>4.2592426099063589E-4</v>
       </c>
@@ -31145,25 +31198,26 @@
         <v>3.1999999999999971</v>
       </c>
       <c r="B56">
-        <f>'CEArun Nescius'!D57</f>
-        <v>233.97553516819573</v>
+        <f>'CEArun Nescius'!D66</f>
+        <v>227.38022426095819</v>
       </c>
       <c r="C56">
+        <f>'CEArun Nescius'!C66</f>
         <v>3192.92</v>
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>233.86129909567626</v>
-      </c>
-      <c r="E56" s="15">
+        <v>227.45316181489807</v>
+      </c>
+      <c r="E56" s="13">
         <f t="shared" si="1"/>
-        <v>4.8823938980353262E-4</v>
+        <v>3.2077351571336188E-4</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
         <v>3194.7019792286592</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="13">
         <f t="shared" si="3"/>
         <v>5.5810331253495571E-4</v>
       </c>
@@ -31173,25 +31227,26 @@
         <v>3.2499999999999969</v>
       </c>
       <c r="B57">
-        <f>'CEArun Nescius'!D58</f>
-        <v>233.21100917431193</v>
+        <f>'CEArun Nescius'!D67</f>
+        <v>226.68705402650357</v>
       </c>
       <c r="C57">
+        <f>'CEArun Nescius'!C67</f>
         <v>3184.18</v>
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>233.19089128634096</v>
-      </c>
-      <c r="E57" s="15">
+        <v>226.7255790418626</v>
+      </c>
+      <c r="E57" s="13">
         <f t="shared" si="1"/>
-        <v>8.6264743856632092E-5</v>
+        <v>1.6994801721020874E-4</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
         <v>3185.1984030323365</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="13">
         <f t="shared" si="3"/>
         <v>3.1983211763677438E-4</v>
       </c>
@@ -31201,41 +31256,42 @@
         <v>3.2999999999999967</v>
       </c>
       <c r="B58">
-        <f>'CEArun Nescius'!D59</f>
-        <v>232.44648318042815</v>
+        <f>'CEArun Nescius'!D68</f>
+        <v>226.00407747196735</v>
       </c>
       <c r="C58">
+        <f>'CEArun Nescius'!C68</f>
         <v>3175.36</v>
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>232.62076124674877</v>
-      </c>
-      <c r="E58" s="15">
+        <v>225.92063913027482</v>
+      </c>
+      <c r="E58" s="13">
         <f t="shared" si="1"/>
-        <v>7.4975565960852877E-4</v>
+        <v>3.691895412943472E-4</v>
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
         <v>3173.4248225992924</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="13">
         <f t="shared" si="3"/>
         <v>6.0943559177785943E-4</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="16">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14">
         <f>MEDIAN(E2:E58)</f>
-        <v>6.9802317649149035E-4</v>
-      </c>
-      <c r="G59" s="16">
+        <v>2.409731563302448E-4</v>
+      </c>
+      <c r="G59" s="14">
         <f>MEDIAN(G2:G58)</f>
         <v>4.5338772384444416E-4</v>
       </c>
